--- a/data/intra_MCX.xlsx
+++ b/data/intra_MCX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tjueducn-my.sharepoint.com/personal/jiayu_chen_tju_edu_cn/Documents/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tjueducn-my.sharepoint.com/personal/jiayu_chen_tju_edu_cn/Documents/Academic/NN/gru/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4DA82427541F7ACA7EB84B104915FE6BE8DE16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A87B436B-577E-4AC6-8976-27008D095DF9}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4DA82427541F7ACA7EB84B104915FE6BE8DE16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1536B90E-CF7B-4547-9280-6BC396DE3C11}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>intra</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>cg</t>
+  </si>
+  <si>
+    <t>x1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,6 +120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,13 +391,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A979" workbookViewId="0">
-      <selection activeCell="B1013" sqref="B1013"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,26 +407,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>1050</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1219</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1314</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1409</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1550</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4.7</v>
       </c>
@@ -427,7 +455,7 @@
         <v>4.7614737035445698</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>19.100000000000001</v>
       </c>
@@ -456,7 +484,7 @@
         <v>4.3956917789582599</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9.1</v>
       </c>
@@ -485,7 +513,7 @@
         <v>4.2545817403545998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>19.2</v>
       </c>
@@ -514,7 +542,7 @@
         <v>4.2407795898775902</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>15.3</v>
       </c>
@@ -543,7 +571,7 @@
         <v>4.3747048169963101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8.6</v>
       </c>
@@ -572,7 +600,7 @@
         <v>4.7600181689173304</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -601,7 +629,7 @@
         <v>4.5195757787314799</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -630,7 +658,7 @@
         <v>4.6858406307894001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -659,7 +687,7 @@
         <v>4.2525716450836901</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -688,7 +716,7 @@
         <v>4.8528289699674998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -717,7 +745,7 @@
         <v>4.1592846594850004</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5.9</v>
       </c>
@@ -746,7 +774,7 @@
         <v>4.9699871490859602</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -775,7 +803,7 @@
         <v>4.2668866248188397</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14.2</v>
       </c>
@@ -804,7 +832,7 @@
         <v>4.4464276750395397</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -833,7 +861,7 @@
         <v>4.3865319771271896</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -862,7 +890,7 @@
         <v>4.2357159517858598</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18.2</v>
       </c>
@@ -891,7 +919,7 @@
         <v>4.56421160754463</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19.5</v>
       </c>
@@ -920,7 +948,7 @@
         <v>4.8563937036336702</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4.5</v>
       </c>
@@ -949,7 +977,7 @@
         <v>4.8869826183785499</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>11</v>
       </c>
@@ -978,7 +1006,7 @@
         <v>4.2797045917650598</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -1007,7 +1035,7 @@
         <v>4.12724886060772</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>13.1</v>
       </c>
@@ -1036,7 +1064,7 @@
         <v>4.3798355455629503</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3.1</v>
       </c>
@@ -1065,7 +1093,7 @@
         <v>4.3539453414395899</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -1094,7 +1122,7 @@
         <v>4.8214805313429698</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>17.7</v>
       </c>
@@ -1123,7 +1151,7 @@
         <v>5.0630218186397897</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10.4</v>
       </c>
@@ -1152,7 +1180,7 @@
         <v>4.7803457934734599</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>11.7</v>
       </c>
@@ -1181,7 +1209,7 @@
         <v>4.8826182523127297</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10.3</v>
       </c>
@@ -1210,7 +1238,7 @@
         <v>4.6831569442952299</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>11.8</v>
       </c>
@@ -1239,7 +1267,7 @@
         <v>4.97614080527305</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>15.5</v>
       </c>
@@ -1268,7 +1296,7 @@
         <v>4.9080696128976902</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>11.3</v>
       </c>
@@ -1297,7 +1325,7 @@
         <v>4.6243992551929596</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>12.3</v>
       </c>
@@ -1326,7 +1354,7 @@
         <v>4.7232935402646499</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>6.7</v>
       </c>
@@ -1355,7 +1383,7 @@
         <v>5.0174722876271503</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1384,7 +1412,7 @@
         <v>4.4806576132413696</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>13.8</v>
       </c>
@@ -1413,7 +1441,7 @@
         <v>4.9850067202495296</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>5.3</v>
       </c>
@@ -1442,7 +1470,7 @@
         <v>4.6282856866420996</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -1471,7 +1499,7 @@
         <v>4.2968688143995299</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3.8</v>
       </c>
@@ -1500,7 +1528,7 @@
         <v>4.8125651745206097</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -1529,7 +1557,7 @@
         <v>4.2990267855400601</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3.5</v>
       </c>
@@ -1558,7 +1586,7 @@
         <v>4.7068033049856597</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>18</v>
       </c>
@@ -1587,7 +1615,7 @@
         <v>4.2889355052729101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2.9</v>
       </c>
@@ -1616,7 +1644,7 @@
         <v>4.9734291946691203</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -1645,7 +1673,7 @@
         <v>4.4121723605492704</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>11.3</v>
       </c>
@@ -1674,7 +1702,7 @@
         <v>4.4303713831607396</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>14</v>
       </c>
@@ -1703,7 +1731,7 @@
         <v>4.31926612319036</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>14.4</v>
       </c>
@@ -1732,7 +1760,7 @@
         <v>4.5971325132656702</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>15</v>
       </c>
@@ -1761,7 +1789,7 @@
         <v>4.0776109942181398</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>14.9</v>
       </c>
@@ -1790,7 +1818,7 @@
         <v>5.0249127177064796</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>19.3</v>
       </c>
@@ -1819,7 +1847,7 @@
         <v>4.7266635395739502</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -1848,7 +1876,7 @@
         <v>5.0196584473839696</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>18.7</v>
       </c>
@@ -1877,7 +1905,7 @@
         <v>5.02760125092263</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2.9</v>
       </c>
@@ -1906,7 +1934,7 @@
         <v>5.11871861802741</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>14.2</v>
       </c>
@@ -1935,7 +1963,7 @@
         <v>4.5838839269251803</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>9</v>
       </c>
@@ -1964,7 +1992,7 @@
         <v>4.1976987651250797</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>17.8</v>
       </c>
@@ -1993,7 +2021,7 @@
         <v>5.0393707930209599</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>18.5</v>
       </c>
@@ -2022,7 +2050,7 @@
         <v>4.6617577596230397</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>12.2</v>
       </c>
@@ -2051,7 +2079,7 @@
         <v>4.4834086160194602</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>19.7</v>
       </c>
@@ -2080,7 +2108,7 @@
         <v>4.8805984721790798</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -2109,7 +2137,7 @@
         <v>4.5494052437016599</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>19.3</v>
       </c>
@@ -2138,7 +2166,7 @@
         <v>4.6062130011851199</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>5.4</v>
       </c>
@@ -2167,7 +2195,7 @@
         <v>4.7125200794993498</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>6.1</v>
       </c>
@@ -2196,7 +2224,7 @@
         <v>4.2454353951680703</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -2225,7 +2253,7 @@
         <v>5.0132999152474103</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>19.600000000000001</v>
       </c>
@@ -2254,7 +2282,7 @@
         <v>4.9304109801156804</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>5.5</v>
       </c>
@@ -2283,7 +2311,7 @@
         <v>4.7631004131943797</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>12.4</v>
       </c>
@@ -2312,7 +2340,7 @@
         <v>4.6403232856912799</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>13.2</v>
       </c>
@@ -2341,7 +2369,7 @@
         <v>4.4344669068606404</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>14.4</v>
       </c>
@@ -2370,7 +2398,7 @@
         <v>4.5819170965447604</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>14.4</v>
       </c>
@@ -2399,7 +2427,7 @@
         <v>4.6105585163449101</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>15.8</v>
       </c>
@@ -2428,7 +2456,7 @@
         <v>4.97862828962361</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>15.7</v>
       </c>
@@ -2457,7 +2485,7 @@
         <v>5.0738474212685096</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3.9</v>
       </c>
@@ -2486,7 +2514,7 @@
         <v>4.9485802702697104</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>11</v>
       </c>
@@ -2515,7 +2543,7 @@
         <v>4.3411804050903502</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>13.7</v>
       </c>
@@ -2544,7 +2572,7 @@
         <v>4.9039500515927097</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -2573,7 +2601,7 @@
         <v>4.50243034896081</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>7.9</v>
       </c>
@@ -2602,7 +2630,7 @@
         <v>5.2032862664778996</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>13.1</v>
       </c>
@@ -2631,7 +2659,7 @@
         <v>4.4824989886349602</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -2660,7 +2688,7 @@
         <v>4.2469675625646799</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>19.2</v>
       </c>
@@ -2689,7 +2717,7 @@
         <v>4.6171663014021203</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>8.4</v>
       </c>
@@ -2718,7 +2746,7 @@
         <v>4.71961145291304</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>10.3</v>
       </c>
@@ -2747,7 +2775,7 @@
         <v>4.6954019015226498</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>7.1</v>
       </c>
@@ -2776,7 +2804,7 @@
         <v>4.3043963268290701</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>15</v>
       </c>
@@ -2805,7 +2833,7 @@
         <v>4.2360120614184398</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>3.6</v>
       </c>
@@ -2834,7 +2862,7 @@
         <v>4.7963212002088902</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2.8</v>
       </c>
@@ -2863,7 +2891,7 @@
         <v>4.9866264507342404</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>18.399999999999999</v>
       </c>
@@ -2892,7 +2920,7 @@
         <v>4.7292154581885297</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>9.6</v>
       </c>
@@ -2921,7 +2949,7 @@
         <v>4.94239984757826</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>8</v>
       </c>
@@ -2950,7 +2978,7 @@
         <v>4.2818584531186401</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>11.1</v>
       </c>
@@ -2979,7 +3007,7 @@
         <v>4.3272908289357899</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>10.1</v>
       </c>
@@ -3008,7 +3036,7 @@
         <v>4.3939086034694199</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>10.5</v>
       </c>
@@ -3037,7 +3065,7 @@
         <v>4.7828114240972202</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>6.8</v>
       </c>
@@ -3066,7 +3094,7 @@
         <v>5.01934270329639</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -3095,7 +3123,7 @@
         <v>4.2201906419393698</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -3124,7 +3152,7 @@
         <v>4.94908991831627</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>19.3</v>
       </c>
@@ -3153,7 +3181,7 @@
         <v>4.5515891817918002</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>12.3</v>
       </c>
@@ -3182,7 +3210,7 @@
         <v>4.5389445747917296</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>3.9</v>
       </c>
@@ -3211,7 +3239,7 @@
         <v>4.9370951657521696</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>17.2</v>
       </c>
@@ -3240,7 +3268,7 @@
         <v>4.4203673184845096</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>6.7</v>
       </c>
@@ -3269,7 +3297,7 @@
         <v>4.9818680093401104</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>13.3</v>
       </c>
@@ -3298,7 +3326,7 @@
         <v>4.4712432251524401</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>2.4</v>
       </c>
@@ -3327,7 +3355,7 @@
         <v>4.5802569852075798</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>3.5</v>
       </c>
@@ -3356,7 +3384,7 @@
         <v>4.7003712278190903</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>19.7</v>
       </c>
@@ -3385,7 +3413,7 @@
         <v>5.0258879192447496</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>7.8</v>
       </c>
@@ -3414,7 +3442,7 @@
         <v>5.08678809376143</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -3443,7 +3471,7 @@
         <v>5.0530769433304803</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -3472,7 +3500,7 @@
         <v>4.4230675626446603</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>5.9</v>
       </c>
@@ -3501,7 +3529,7 @@
         <v>5.0212374165724496</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>16</v>
       </c>
@@ -3530,7 +3558,7 @@
         <v>4.3129837116268197</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>6.5</v>
       </c>
@@ -3559,7 +3587,7 @@
         <v>4.72801942890053</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>15.7</v>
       </c>
@@ -3588,7 +3616,7 @@
         <v>4.83721537647956</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>17</v>
       </c>
@@ -3617,7 +3645,7 @@
         <v>4.3509901042533299</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>10.7</v>
       </c>
@@ -3646,7 +3674,7 @@
         <v>5.0009590814413096</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>10</v>
       </c>
@@ -3675,7 +3703,7 @@
         <v>4.2678499631967597</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>14.1</v>
       </c>
@@ -3704,7 +3732,7 @@
         <v>4.3362639277577504</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -3733,7 +3761,7 @@
         <v>5.0311760482755101</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>9.6999999999999993</v>
       </c>
@@ -3762,7 +3790,7 @@
         <v>4.9353192747518504</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>7.3</v>
       </c>
@@ -3791,7 +3819,7 @@
         <v>4.7161940348518199</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>13.5</v>
       </c>
@@ -3820,7 +3848,7 @@
         <v>4.5471242090086603</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>10.5</v>
       </c>
@@ -3849,7 +3877,7 @@
         <v>4.8455046401567596</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>14</v>
       </c>
@@ -3878,7 +3906,7 @@
         <v>4.2605109154796601</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2.7</v>
       </c>
@@ -3907,7 +3935,7 @@
         <v>4.9055417530296399</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>16.8</v>
       </c>
@@ -3936,7 +3964,7 @@
         <v>4.8521373106362997</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>8.4</v>
       </c>
@@ -3965,7 +3993,7 @@
         <v>4.5988723810039396</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>19.8</v>
       </c>
@@ -3994,7 +4022,7 @@
         <v>4.8988335193055699</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -4023,7 +4051,7 @@
         <v>4.5598396569665596</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>13.3</v>
       </c>
@@ -4052,7 +4080,7 @@
         <v>4.7467117352180299</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>5.4</v>
       </c>
@@ -4081,7 +4109,7 @@
         <v>4.7538932737371198</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>11.8</v>
       </c>
@@ -4110,7 +4138,7 @@
         <v>5.0579691692031501</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>14.5</v>
       </c>
@@ -4139,7 +4167,7 @@
         <v>4.7744274708681997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>9.6</v>
       </c>
@@ -4168,7 +4196,7 @@
         <v>4.9115793240360404</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2.6</v>
       </c>
@@ -4197,7 +4225,7 @@
         <v>4.6910136693587896</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>16.899999999999999</v>
       </c>
@@ -4226,7 +4254,7 @@
         <v>4.9879696268879199</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -4255,7 +4283,7 @@
         <v>4.9070814474438604</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -4284,7 +4312,7 @@
         <v>4.5997028726540803</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>8.5</v>
       </c>
@@ -4313,7 +4341,7 @@
         <v>4.5802750686683398</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>15.1</v>
       </c>
@@ -4342,7 +4370,7 @@
         <v>4.5265498589286199</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>10.9</v>
       </c>
@@ -4371,7 +4399,7 @@
         <v>4.8765698666602599</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>10.9</v>
       </c>
@@ -4400,7 +4428,7 @@
         <v>4.9210798808399101</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>12.6</v>
       </c>
@@ -4429,7 +4457,7 @@
         <v>4.7353114980442603</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>7.1</v>
       </c>
@@ -4458,7 +4486,7 @@
         <v>4.4083304975998603</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>6.6</v>
       </c>
@@ -4487,7 +4515,7 @@
         <v>4.6678277982169396</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>15.1</v>
       </c>
@@ -4516,7 +4544,7 @@
         <v>4.3792394235539502</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>13.9</v>
       </c>
@@ -4545,7 +4573,7 @@
         <v>4.8949554376990996</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -4574,7 +4602,7 @@
         <v>4.9359579639830002</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>16</v>
       </c>
@@ -4603,7 +4631,7 @@
         <v>4.28656452439491</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -4632,7 +4660,7 @@
         <v>4.9807284130563403</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>9.5</v>
       </c>
@@ -4661,7 +4689,7 @@
         <v>4.7765092166163896</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>4</v>
       </c>
@@ -4690,7 +4718,7 @@
         <v>4.21058090904969</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>17</v>
       </c>
@@ -4719,7 +4747,7 @@
         <v>4.3075895907752999</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>14</v>
       </c>
@@ -4748,7 +4776,7 @@
         <v>4.1543593415234197</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>16.5</v>
       </c>
@@ -4777,7 +4805,7 @@
         <v>4.8260363177443599</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>6.4</v>
       </c>
@@ -4806,7 +4834,7 @@
         <v>4.7694463149019501</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>3.8</v>
       </c>
@@ -4835,7 +4863,7 @@
         <v>5.1595147562978498</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>8.5</v>
       </c>
@@ -4864,7 +4892,7 @@
         <v>4.9674522033100699</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>7.3</v>
       </c>
@@ -4893,7 +4921,7 @@
         <v>4.45709744344264</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>7.5</v>
       </c>
@@ -4922,7 +4950,7 @@
         <v>4.8426670510136898</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>5.5</v>
       </c>
@@ -4951,7 +4979,7 @@
         <v>4.7022195997779903</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>15.4</v>
       </c>
@@ -4980,7 +5008,7 @@
         <v>4.5154359675931497</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>17.5</v>
       </c>
@@ -5009,7 +5037,7 @@
         <v>4.7477575200666804</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>6.5</v>
       </c>
@@ -5038,7 +5066,7 @@
         <v>4.8225260942216099</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>14.5</v>
       </c>
@@ -5067,7 +5095,7 @@
         <v>4.69627124633897</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>14.3</v>
       </c>
@@ -5096,7 +5124,7 @@
         <v>4.50284428339189</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>15</v>
       </c>
@@ -5125,7 +5153,7 @@
         <v>4.2759475187763902</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>4.5</v>
       </c>
@@ -5154,7 +5182,7 @@
         <v>4.7182033154964698</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>10</v>
       </c>
@@ -5183,7 +5211,7 @@
         <v>4.0863849014871496</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>7.3</v>
       </c>
@@ -5212,7 +5240,7 @@
         <v>4.5664796156166902</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>17.7</v>
       </c>
@@ -5241,7 +5269,7 @@
         <v>4.95660528721295</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>9.9</v>
       </c>
@@ -5270,7 +5298,7 @@
         <v>5.03365910598197</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>19.600000000000001</v>
       </c>
@@ -5299,7 +5327,7 @@
         <v>4.85915231219108</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>12.3</v>
       </c>
@@ -5328,7 +5356,7 @@
         <v>4.4379068900495504</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>16.2</v>
       </c>
@@ -5357,7 +5385,7 @@
         <v>4.62452875386961</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>7.3</v>
       </c>
@@ -5386,7 +5414,7 @@
         <v>4.5755789647297203</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>6.2</v>
       </c>
@@ -5415,7 +5443,7 @@
         <v>4.4778090372119301</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>15.1</v>
       </c>
@@ -5444,7 +5472,7 @@
         <v>4.2772187935647503</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>12.2</v>
       </c>
@@ -5473,7 +5501,7 @@
         <v>4.4127328150932303</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>13.2</v>
       </c>
@@ -5502,7 +5530,7 @@
         <v>4.4082594640796096</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>11.5</v>
       </c>
@@ -5531,7 +5559,7 @@
         <v>4.8031225648479197</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>13.5</v>
       </c>
@@ -5560,7 +5588,7 @@
         <v>4.9326712464521298</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>14.1</v>
       </c>
@@ -5589,7 +5617,7 @@
         <v>4.3891216437920102</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>17.3</v>
       </c>
@@ -5618,7 +5646,7 @@
         <v>4.5537338988860601</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>14.6</v>
       </c>
@@ -5647,7 +5675,7 @@
         <v>4.7929890451970696</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>2.6</v>
       </c>
@@ -5676,7 +5704,7 @@
         <v>4.7557508522807597</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>8.5</v>
       </c>
@@ -5705,7 +5733,7 @@
         <v>4.8109951749037503</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>6.6</v>
       </c>
@@ -5734,7 +5762,7 @@
         <v>5.1906313328741698</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>7</v>
       </c>
@@ -5763,7 +5791,7 @@
         <v>4.1202800200466996</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>12.7</v>
       </c>
@@ -5792,7 +5820,7 @@
         <v>5.1039756889718397</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>16.2</v>
       </c>
@@ -5821,7 +5849,7 @@
         <v>4.5121005335441797</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -5850,7 +5878,7 @@
         <v>4.4724232180062504</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>19.8</v>
       </c>
@@ -5879,7 +5907,7 @@
         <v>4.8509775403453101</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>3.7</v>
       </c>
@@ -5908,7 +5936,7 @@
         <v>4.9770104696873396</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>11</v>
       </c>
@@ -5937,7 +5965,7 @@
         <v>4.2282745009264202</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>3.3</v>
       </c>
@@ -5966,7 +5994,7 @@
         <v>4.6137124587599203</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -5995,7 +6023,7 @@
         <v>5.0268338308415199</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>13.6</v>
       </c>
@@ -6024,7 +6052,7 @@
         <v>4.9314965550341796</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>7.6</v>
       </c>
@@ -6053,7 +6081,7 @@
         <v>5.0689720629892703</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>15.9</v>
       </c>
@@ -6082,7 +6110,7 @@
         <v>5.1368145260199203</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>9.5</v>
       </c>
@@ -6111,7 +6139,7 @@
         <v>4.7263179588305997</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>4.3</v>
       </c>
@@ -6140,7 +6168,7 @@
         <v>4.73357100361366</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>7.3</v>
       </c>
@@ -6169,7 +6197,7 @@
         <v>4.6541544852819596</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>4.2</v>
       </c>
@@ -6198,7 +6226,7 @@
         <v>4.7492291716054096</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -6227,7 +6255,7 @@
         <v>5.0808794645566104</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>7.7</v>
       </c>
@@ -6256,7 +6284,7 @@
         <v>5.2215483329997099</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>14</v>
       </c>
@@ -6285,7 +6313,7 @@
         <v>4.2499212856325403</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>12.8</v>
       </c>
@@ -6314,7 +6342,7 @@
         <v>4.9716681795186499</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -6343,7 +6371,7 @@
         <v>4.4238857011415096</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>13.1</v>
       </c>
@@ -6372,7 +6400,7 @@
         <v>4.3593858658993199</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>5.2</v>
       </c>
@@ -6401,7 +6429,7 @@
         <v>4.5548163655681</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2.7</v>
       </c>
@@ -6430,7 +6458,7 @@
         <v>4.9435121345277304</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>14.3</v>
       </c>
@@ -6459,7 +6487,7 @@
         <v>4.6846933792922298</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>12.8</v>
       </c>
@@ -6488,7 +6516,7 @@
         <v>4.9634865470141403</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>11.5</v>
       </c>
@@ -6517,7 +6545,7 @@
         <v>4.8913668591794401</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>10.5</v>
       </c>
@@ -6546,7 +6574,7 @@
         <v>4.6344270093285802</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>4.7</v>
       </c>
@@ -6575,7 +6603,7 @@
         <v>4.77342186490882</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>16.5</v>
       </c>
@@ -6604,7 +6632,7 @@
         <v>4.6261038959655698</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>10.5</v>
       </c>
@@ -6633,7 +6661,7 @@
         <v>4.9007343004227097</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>4.7</v>
       </c>
@@ -6662,7 +6690,7 @@
         <v>5.00005544948917</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>9.6</v>
       </c>
@@ -6691,7 +6719,7 @@
         <v>4.7911463642611096</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>2.4</v>
       </c>
@@ -6720,7 +6748,7 @@
         <v>4.8571515616238603</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>15.3</v>
       </c>
@@ -6749,7 +6777,7 @@
         <v>4.4079962482051496</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>20</v>
       </c>
@@ -6778,7 +6806,7 @@
         <v>4.3145704622012104</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>15.4</v>
       </c>
@@ -6807,7 +6835,7 @@
         <v>4.8136787531054903</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>20</v>
       </c>
@@ -6836,7 +6864,7 @@
         <v>4.1202495504530603</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>19.2</v>
       </c>
@@ -6865,7 +6893,7 @@
         <v>4.5027679195629204</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>3.3</v>
       </c>
@@ -6894,7 +6922,7 @@
         <v>4.5543863069814803</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>14.6</v>
       </c>
@@ -6923,7 +6951,7 @@
         <v>4.7704502955646202</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>2.4</v>
       </c>
@@ -6952,7 +6980,7 @@
         <v>4.6976498350598304</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -6981,7 +7009,7 @@
         <v>4.3062439139105502</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -7010,7 +7038,7 @@
         <v>4.4529322090725501</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>5.2</v>
       </c>
@@ -7039,7 +7067,7 @@
         <v>4.4454111620913599</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>14.2</v>
       </c>
@@ -7068,7 +7096,7 @@
         <v>4.4355889840735898</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>6.9</v>
       </c>
@@ -7097,7 +7125,7 @@
         <v>5.2043335429133801</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>12.2</v>
       </c>
@@ -7126,7 +7154,7 @@
         <v>4.4469615324153704</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>10.8</v>
       </c>
@@ -7155,7 +7183,7 @@
         <v>4.9321706761201698</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>19.5</v>
       </c>
@@ -7184,7 +7212,7 @@
         <v>4.8444366924617599</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>16</v>
       </c>
@@ -7213,7 +7241,7 @@
         <v>4.36923695249296</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>4.3</v>
       </c>
@@ -7242,7 +7270,7 @@
         <v>4.7135074437139197</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>2.9</v>
       </c>
@@ -7271,7 +7299,7 @@
         <v>4.8202694430271897</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>12.2</v>
       </c>
@@ -7300,7 +7328,7 @@
         <v>4.5376231533364004</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>8.6</v>
       </c>
@@ -7329,7 +7357,7 @@
         <v>4.8120347309492697</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>14</v>
       </c>
@@ -7358,7 +7386,7 @@
         <v>4.2692267444267404</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>17.3</v>
       </c>
@@ -7387,7 +7415,7 @@
         <v>4.6211077561126999</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>4.3</v>
       </c>
@@ -7416,7 +7444,7 @@
         <v>4.64671316798837</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>14.3</v>
       </c>
@@ -7445,7 +7473,7 @@
         <v>4.5678621016892098</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>13.8</v>
       </c>
@@ -7474,7 +7502,7 @@
         <v>4.8681838439918002</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>17</v>
       </c>
@@ -7503,7 +7531,7 @@
         <v>4.1750800110171999</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>11</v>
       </c>
@@ -7532,7 +7560,7 @@
         <v>4.1894602357406301</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -7561,7 +7589,7 @@
         <v>4.3821799819257299</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>4.3</v>
       </c>
@@ -7590,7 +7618,7 @@
         <v>4.6453040279342996</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>14.7</v>
       </c>
@@ -7619,7 +7647,7 @@
         <v>4.8844782900422903</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>7.4</v>
       </c>
@@ -7648,7 +7676,7 @@
         <v>4.8374705587448199</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>16.899999999999999</v>
       </c>
@@ -7677,7 +7705,7 @@
         <v>4.9434134082081904</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>10.5</v>
       </c>
@@ -7706,7 +7734,7 @@
         <v>4.83775804486302</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>16.2</v>
       </c>
@@ -7735,7 +7763,7 @@
         <v>4.49809034245677</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>12.4</v>
       </c>
@@ -7764,7 +7792,7 @@
         <v>4.7421634754114299</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>6.4</v>
       </c>
@@ -7793,7 +7821,7 @@
         <v>4.6684476969138</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>7</v>
       </c>
@@ -7822,7 +7850,7 @@
         <v>4.2128940938828201</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>15.7</v>
       </c>
@@ -7851,7 +7879,7 @@
         <v>5.0236770000221203</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>15.6</v>
       </c>
@@ -7880,7 +7908,7 @@
         <v>4.8506480545363599</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>16.7</v>
       </c>
@@ -7909,7 +7937,7 @@
         <v>5.0355463412725401</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>19</v>
       </c>
@@ -7938,7 +7966,7 @@
         <v>4.2960223947353899</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -7967,7 +7995,7 @@
         <v>4.7241353183251897</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>7.8</v>
       </c>
@@ -7996,7 +8024,7 @@
         <v>4.9932791362401501</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>15.2</v>
       </c>
@@ -8025,7 +8053,7 @@
         <v>4.46714070365908</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>18.8</v>
       </c>
@@ -8054,7 +8082,7 @@
         <v>5.0497822892847202</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>19.5</v>
       </c>
@@ -8083,7 +8111,7 @@
         <v>4.5759732033709799</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>12.1</v>
       </c>
@@ -8112,7 +8140,7 @@
         <v>4.3692150348270804</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>19.5</v>
       </c>
@@ -8141,7 +8169,7 @@
         <v>4.8499819930477504</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>7.2</v>
       </c>
@@ -8170,7 +8198,7 @@
         <v>4.4776127099118996</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>18.2</v>
       </c>
@@ -8199,7 +8227,7 @@
         <v>4.4176343038557198</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>11.3</v>
       </c>
@@ -8228,7 +8256,7 @@
         <v>4.6379924371221</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>19.600000000000001</v>
       </c>
@@ -8257,7 +8285,7 @@
         <v>4.9259935160487798</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>15.2</v>
       </c>
@@ -8286,7 +8314,7 @@
         <v>4.5675075464086898</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>14.1</v>
       </c>
@@ -8315,7 +8343,7 @@
         <v>4.6215624071423296</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>5.4</v>
       </c>
@@ -8344,7 +8372,7 @@
         <v>4.6690326493044196</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -8373,7 +8401,7 @@
         <v>5.1497675180014797</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -8402,7 +8430,7 @@
         <v>4.4632588204884298</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>5.9</v>
       </c>
@@ -8431,7 +8459,7 @@
         <v>5.0479268687210199</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>7.2</v>
       </c>
@@ -8460,7 +8488,7 @@
         <v>4.5083227936924901</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>17</v>
       </c>
@@ -8489,7 +8517,7 @@
         <v>4.2024026113477699</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -8518,7 +8546,7 @@
         <v>4.3424776412702597</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>17.5</v>
       </c>
@@ -8547,7 +8575,7 @@
         <v>4.8832692017733201</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>13.4</v>
       </c>
@@ -8576,7 +8604,7 @@
         <v>4.5493810062406004</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>7</v>
       </c>
@@ -8605,7 +8633,7 @@
         <v>4.2429471973298298</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>17.8</v>
       </c>
@@ -8634,7 +8662,7 @@
         <v>4.8591156018777104</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>9.6</v>
       </c>
@@ -8663,7 +8691,7 @@
         <v>4.9312549007389999</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>6.7</v>
       </c>
@@ -8692,7 +8720,7 @@
         <v>4.9429124732645802</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>16</v>
       </c>
@@ -8721,7 +8749,7 @@
         <v>4.2484033150214104</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>6.8</v>
       </c>
@@ -8750,7 +8778,7 @@
         <v>5.0258616113166497</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>4.5</v>
       </c>
@@ -8779,7 +8807,7 @@
         <v>4.7415933537934496</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>16.3</v>
       </c>
@@ -8808,7 +8836,7 @@
         <v>4.9158857606487603</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>9.6</v>
       </c>
@@ -8837,7 +8865,7 @@
         <v>4.8473482270620201</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>14.4</v>
       </c>
@@ -8866,7 +8894,7 @@
         <v>4.6383529591110797</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -8895,7 +8923,7 @@
         <v>4.6328935641454603</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -8924,7 +8952,7 @@
         <v>4.5252599004114904</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>8.6</v>
       </c>
@@ -8953,7 +8981,7 @@
         <v>4.76316374110786</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>9.9</v>
       </c>
@@ -8982,7 +9010,7 @@
         <v>4.9817560203306304</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>16.899999999999999</v>
       </c>
@@ -9011,7 +9039,7 @@
         <v>4.9922470646628003</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -9040,7 +9068,7 @@
         <v>5.0892623687136602</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -9069,7 +9097,7 @@
         <v>4.27552397240538</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>18.399999999999999</v>
       </c>
@@ -9098,7 +9126,7 @@
         <v>4.7471366292604404</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -9127,7 +9155,7 @@
         <v>4.6352387108736401</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>11.5</v>
       </c>
@@ -9156,7 +9184,7 @@
         <v>4.8707300871799397</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -9185,7 +9213,7 @@
         <v>4.6844293337653804</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>13.1</v>
       </c>
@@ -9214,7 +9242,7 @@
         <v>4.2036723445161401</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>3.7</v>
       </c>
@@ -9243,7 +9271,7 @@
         <v>5.0463037925771603</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>7.2</v>
       </c>
@@ -9272,7 +9300,7 @@
         <v>4.4638151340868903</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>7.3</v>
       </c>
@@ -9301,7 +9329,7 @@
         <v>4.4979892014400802</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>3.8</v>
       </c>
@@ -9330,7 +9358,7 @@
         <v>4.9347893449632902</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>3.3</v>
       </c>
@@ -9359,7 +9387,7 @@
         <v>4.9121537298604796</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>15</v>
       </c>
@@ -9388,7 +9416,7 @@
         <v>4.0778396384753997</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>2.7</v>
       </c>
@@ -9417,7 +9445,7 @@
         <v>5.1874456696701001</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>10.8</v>
       </c>
@@ -9446,7 +9474,7 @@
         <v>4.9011133969348801</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>11.6</v>
       </c>
@@ -9475,7 +9503,7 @@
         <v>4.7384635155564103</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>19.3</v>
       </c>
@@ -9504,7 +9532,7 @@
         <v>4.7683869429467798</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>3.4</v>
       </c>
@@ -9533,7 +9561,7 @@
         <v>4.6828386972820599</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>19</v>
       </c>
@@ -9562,7 +9590,7 @@
         <v>4.1572111416700501</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>15.3</v>
       </c>
@@ -9591,7 +9619,7 @@
         <v>4.42005340495826</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -9620,7 +9648,7 @@
         <v>4.5148778883527303</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>10.4</v>
       </c>
@@ -9649,7 +9677,7 @@
         <v>4.4554443748458104</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>14.6</v>
       </c>
@@ -9678,7 +9706,7 @@
         <v>4.9740685460645997</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>3</v>
       </c>
@@ -9707,7 +9735,7 @@
         <v>3.9834306468049401</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -9736,7 +9764,7 @@
         <v>4.5326561016401898</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>5.2</v>
       </c>
@@ -9765,7 +9793,7 @@
         <v>4.4872263637877801</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>18.2</v>
       </c>
@@ -9794,7 +9822,7 @@
         <v>4.5392923235488496</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>10.3</v>
       </c>
@@ -9823,7 +9851,7 @@
         <v>4.5560245708974598</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>8.9</v>
       </c>
@@ -9852,7 +9880,7 @@
         <v>4.8881478089003298</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>10.5</v>
       </c>
@@ -9881,7 +9909,7 @@
         <v>4.8845356322948197</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>11</v>
       </c>
@@ -9910,7 +9938,7 @@
         <v>4.34093231022847</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>9</v>
       </c>
@@ -9939,7 +9967,7 @@
         <v>4.2104430909324799</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -9968,7 +9996,7 @@
         <v>4.3466256059434798</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>6.3</v>
       </c>
@@ -9997,7 +10025,7 @@
         <v>4.6326974585443601</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>3.8</v>
       </c>
@@ -10026,7 +10054,7 @@
         <v>5.1929432707944603</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>10</v>
       </c>
@@ -10055,7 +10083,7 @@
         <v>4.1597229635666899</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>13.9</v>
       </c>
@@ -10084,7 +10112,7 @@
         <v>4.9098819039106996</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>17.899999999999999</v>
       </c>
@@ -10113,7 +10141,7 @@
         <v>4.94355366859687</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -10142,7 +10170,7 @@
         <v>4.2212763275704503</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -10171,7 +10199,7 @@
         <v>4.9224401502083399</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>12.4</v>
       </c>
@@ -10200,7 +10228,7 @@
         <v>4.6089345931456203</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>4.8</v>
       </c>
@@ -10229,7 +10257,7 @@
         <v>4.8037532476513896</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>10.5</v>
       </c>
@@ -10258,7 +10286,7 @@
         <v>4.9552220705033001</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>13.9</v>
       </c>
@@ -10287,7 +10315,7 @@
         <v>5.09099918621488</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>11.1</v>
       </c>
@@ -10316,7 +10344,7 @@
         <v>4.4454445840776904</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -10345,7 +10373,7 @@
         <v>4.38966044899807</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>6.4</v>
       </c>
@@ -10374,7 +10402,7 @@
         <v>5.0605939553517398</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>9.6</v>
       </c>
@@ -10403,7 +10431,7 @@
         <v>4.8569229090160002</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>5.2</v>
       </c>
@@ -10432,7 +10460,7 @@
         <v>4.5937209684003903</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>4.8</v>
       </c>
@@ -10461,7 +10489,7 @@
         <v>5.0274217548398497</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>11.5</v>
       </c>
@@ -10490,7 +10518,7 @@
         <v>4.7466748254232103</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>13</v>
       </c>
@@ -10519,7 +10547,7 @@
         <v>4.2580413244819404</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>12.6</v>
       </c>
@@ -10548,7 +10576,7 @@
         <v>4.9268921148443301</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>10.1</v>
       </c>
@@ -10577,7 +10605,7 @@
         <v>4.2694543652956902</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>13.2</v>
       </c>
@@ -10606,7 +10634,7 @@
         <v>4.39828284082739</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>4.3</v>
       </c>
@@ -10635,7 +10663,7 @@
         <v>4.5106505978222398</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>9.8000000000000007</v>
       </c>
@@ -10664,7 +10692,7 @@
         <v>4.9434004221374099</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -10693,7 +10721,7 @@
         <v>4.7231731913953698</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>3.5</v>
       </c>
@@ -10722,7 +10750,7 @@
         <v>4.8485501973998497</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>7.6</v>
       </c>
@@ -10751,7 +10779,7 @@
         <v>4.7931455651119403</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -10780,7 +10808,7 @@
         <v>5.1252715037924501</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -10809,7 +10837,7 @@
         <v>4.4305292142650803</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>3.1</v>
       </c>
@@ -10838,7 +10866,7 @@
         <v>4.2470808559544002</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>14.7</v>
       </c>
@@ -10867,7 +10895,7 @@
         <v>4.9713686940521802</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>13.4</v>
       </c>
@@ -10896,7 +10924,7 @@
         <v>4.7299301642571399</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>18.5</v>
       </c>
@@ -10925,7 +10953,7 @@
         <v>4.8943822821783796</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>8.4</v>
       </c>
@@ -10954,7 +10982,7 @@
         <v>4.7242364763081204</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>5.8</v>
       </c>
@@ -10983,7 +11011,7 @@
         <v>5.0789928018108697</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>8.1</v>
       </c>
@@ -11012,7 +11040,7 @@
         <v>4.2843618287803604</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>19.7</v>
       </c>
@@ -11041,7 +11069,7 @@
         <v>5.0420098461520002</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -11070,7 +11098,7 @@
         <v>4.3908176492532798</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>3.4</v>
       </c>
@@ -11099,7 +11127,7 @@
         <v>4.6262739893804197</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -11128,7 +11156,7 @@
         <v>4.4646436415310697</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>4.5</v>
       </c>
@@ -11157,7 +11185,7 @@
         <v>4.7076032759764699</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>3.7</v>
       </c>
@@ -11186,7 +11214,7 @@
         <v>4.96886960820739</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>19.100000000000001</v>
       </c>
@@ -11215,7 +11243,7 @@
         <v>4.2396648047203698</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>13.8</v>
       </c>
@@ -11244,7 +11272,7 @@
         <v>4.8847991290540298</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>6.6</v>
       </c>
@@ -11273,7 +11301,7 @@
         <v>4.8796717873281796</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>15</v>
       </c>
@@ -11302,7 +11330,7 @@
         <v>4.2971239865372102</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>19.2</v>
       </c>
@@ -11331,7 +11359,7 @@
         <v>4.6745684650933903</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>10.9</v>
       </c>
@@ -11360,7 +11388,7 @@
         <v>5.17986094288253</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>13.2</v>
       </c>
@@ -11389,7 +11417,7 @@
         <v>4.3548953838223499</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>5.8</v>
       </c>
@@ -11418,7 +11446,7 @@
         <v>5.0628616475415402</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>3.9</v>
       </c>
@@ -11447,7 +11475,7 @@
         <v>5.0629182889344602</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -11476,7 +11504,7 @@
         <v>4.9083098011468396</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>16.3</v>
       </c>
@@ -11505,7 +11533,7 @@
         <v>4.6531921933616198</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>15.3</v>
       </c>
@@ -11534,7 +11562,7 @@
         <v>4.6352636224590897</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>3.5</v>
       </c>
@@ -11563,7 +11591,7 @@
         <v>4.6810096559563297</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>8.1</v>
       </c>
@@ -11592,7 +11620,7 @@
         <v>4.2666880616080798</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>6.8</v>
       </c>
@@ -11621,7 +11649,7 @@
         <v>4.9072570812987202</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>5.7</v>
       </c>
@@ -11650,7 +11678,7 @@
         <v>5.0133046037387397</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>10.4</v>
       </c>
@@ -11679,7 +11707,7 @@
         <v>4.8127468489106597</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>13.1</v>
       </c>
@@ -11708,7 +11736,7 @@
         <v>4.38315862182891</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>10.3</v>
       </c>
@@ -11737,7 +11765,7 @@
         <v>4.9044463347621896</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>11.7</v>
       </c>
@@ -11766,7 +11794,7 @@
         <v>5.0496733917141796</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>2.4</v>
       </c>
@@ -11795,7 +11823,7 @@
         <v>4.6722771817658098</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>13.3</v>
       </c>
@@ -11824,7 +11852,7 @@
         <v>4.6102122950011797</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>11.9</v>
       </c>
@@ -11853,7 +11881,7 @@
         <v>4.8444123668707801</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>6.1</v>
       </c>
@@ -11882,7 +11910,7 @@
         <v>4.3837825500844803</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>18.8</v>
       </c>
@@ -11911,7 +11939,7 @@
         <v>4.9967739403066798</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>8.5</v>
       </c>
@@ -11940,7 +11968,7 @@
         <v>4.6553319991670596</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>20</v>
       </c>
@@ -11969,7 +11997,7 @@
         <v>4.1754689237942602</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>17.899999999999999</v>
       </c>
@@ -11998,7 +12026,7 @@
         <v>5.1946435729833498</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -12027,7 +12055,7 @@
         <v>4.8273255981555101</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>14.2</v>
       </c>
@@ -12056,7 +12084,7 @@
         <v>4.4852462853291302</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>15.7</v>
       </c>
@@ -12085,7 +12113,7 @@
         <v>4.7739983922805802</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>4.3</v>
       </c>
@@ -12114,7 +12142,7 @@
         <v>4.67286314095825</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>14.7</v>
       </c>
@@ -12143,7 +12171,7 @@
         <v>5.0493767146250397</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>16.399999999999999</v>
       </c>
@@ -12172,7 +12200,7 @@
         <v>4.74940262463865</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>7.3</v>
       </c>
@@ -12201,7 +12229,7 @@
         <v>4.5563703286979402</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>18.899999999999999</v>
       </c>
@@ -12230,7 +12258,7 @@
         <v>5.2626741282778902</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>14.8</v>
       </c>
@@ -12259,7 +12287,7 @@
         <v>4.9212254704381104</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>2.9</v>
       </c>
@@ -12288,7 +12316,7 @@
         <v>4.9741047218326297</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>19.5</v>
       </c>
@@ -12317,7 +12345,7 @@
         <v>4.7319492019831602</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -12346,7 +12374,7 @@
         <v>4.36652802830457</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>3.4</v>
       </c>
@@ -12375,7 +12403,7 @@
         <v>4.5731490001253503</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>14.5</v>
       </c>
@@ -12404,7 +12432,7 @@
         <v>4.6915965448448897</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>15.7</v>
       </c>
@@ -12433,7 +12461,7 @@
         <v>5.0707577869905203</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>13.7</v>
       </c>
@@ -12462,7 +12490,7 @@
         <v>4.9892779811975698</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>6.2</v>
       </c>
@@ -12491,7 +12519,7 @@
         <v>4.4669646423099802</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -12520,7 +12548,7 @@
         <v>4.7063320240024504</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>2.7</v>
       </c>
@@ -12549,7 +12577,7 @@
         <v>4.9431299060547804</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -12578,7 +12606,7 @@
         <v>4.9099293035770399</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>11.6</v>
       </c>
@@ -12607,7 +12635,7 @@
         <v>4.8708682178085301</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>6.4</v>
       </c>
@@ -12636,7 +12664,7 @@
         <v>4.6828122926932201</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>14.1</v>
       </c>
@@ -12665,7 +12693,7 @@
         <v>4.45877500529902</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>17.7</v>
       </c>
@@ -12694,7 +12722,7 @@
         <v>4.9470517662096301</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>14.4</v>
       </c>
@@ -12723,7 +12751,7 @@
         <v>4.7076912503365804</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -12752,7 +12780,7 @@
         <v>4.3937794761693896</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>18.3</v>
       </c>
@@ -12781,7 +12809,7 @@
         <v>4.63988013774257</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>14</v>
       </c>
@@ -12810,7 +12838,7 @@
         <v>4.3061067415395504</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>15.7</v>
       </c>
@@ -12839,7 +12867,7 @@
         <v>4.9211922733944702</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>6.9</v>
       </c>
@@ -12868,7 +12896,7 @@
         <v>4.9920066704466901</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>12.9</v>
       </c>
@@ -12897,7 +12925,7 @@
         <v>5.0908880889733297</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>15.9</v>
       </c>
@@ -12926,7 +12954,7 @@
         <v>4.9858125341069801</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>18</v>
       </c>
@@ -12955,7 +12983,7 @@
         <v>4.1598392321711302</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -12984,7 +13012,7 @@
         <v>4.5335844381281296</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -13013,7 +13041,7 @@
         <v>4.51948303929115</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>11</v>
       </c>
@@ -13042,7 +13070,7 @@
         <v>4.1164894986635598</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>19.600000000000001</v>
       </c>
@@ -13071,7 +13099,7 @@
         <v>4.8249162868782296</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>18</v>
       </c>
@@ -13100,7 +13128,7 @@
         <v>4.2190590164466997</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>18.7</v>
       </c>
@@ -13129,7 +13157,7 @@
         <v>4.9883411110867</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>15.5</v>
       </c>
@@ -13158,7 +13186,7 @@
         <v>4.9470015240694298</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>2.7</v>
       </c>
@@ -13187,7 +13215,7 @@
         <v>4.9150893946726804</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>12.9</v>
       </c>
@@ -13216,7 +13244,7 @@
         <v>5.1097701978563403</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>4.3</v>
       </c>
@@ -13245,7 +13273,7 @@
         <v>4.58919656439212</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>12.3</v>
       </c>
@@ -13274,7 +13302,7 @@
         <v>4.7115662544321903</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>13.8</v>
       </c>
@@ -13303,7 +13331,7 @@
         <v>4.7915323358264299</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>16.7</v>
       </c>
@@ -13332,7 +13360,7 @@
         <v>4.8453428738363797</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>13.8</v>
       </c>
@@ -13361,7 +13389,7 @@
         <v>5.1454911845498303</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -13390,7 +13418,7 @@
         <v>4.3828785437573696</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -13419,7 +13447,7 @@
         <v>5.1088167718797797</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>7.9</v>
       </c>
@@ -13448,7 +13476,7 @@
         <v>5.1926752058980901</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>3.4</v>
       </c>
@@ -13477,7 +13505,7 @@
         <v>4.7692754836348898</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>13.9</v>
       </c>
@@ -13506,7 +13534,7 @@
         <v>4.9709758289653498</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -13535,7 +13563,7 @@
         <v>4.35759699607208</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>18.600000000000001</v>
       </c>
@@ -13564,7 +13592,7 @@
         <v>4.7832609133027004</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>16.5</v>
       </c>
@@ -13593,7 +13621,7 @@
         <v>4.6837908495109</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>19.600000000000001</v>
       </c>
@@ -13622,7 +13650,7 @@
         <v>4.9243143464883596</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>7.6</v>
       </c>
@@ -13651,7 +13679,7 @@
         <v>4.9779635681852303</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -13680,7 +13708,7 @@
         <v>4.5557751881112996</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>17.5</v>
       </c>
@@ -13709,7 +13737,7 @@
         <v>4.8700474657742001</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>6.4</v>
       </c>
@@ -13738,7 +13766,7 @@
         <v>4.7974632180417203</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>11.7</v>
       </c>
@@ -13767,7 +13795,7 @@
         <v>4.9916890713660198</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -13796,7 +13824,7 @@
         <v>4.83286466100901</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>7.5</v>
       </c>
@@ -13825,7 +13853,7 @@
         <v>4.7037849100426596</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>13.5</v>
       </c>
@@ -13854,7 +13882,7 @@
         <v>4.7716346037480202</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>3.9</v>
       </c>
@@ -13883,7 +13911,7 @@
         <v>4.8911263903277602</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>11</v>
       </c>
@@ -13912,7 +13940,7 @@
         <v>4.2959510396239198</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>9</v>
       </c>
@@ -13941,7 +13969,7 @@
         <v>4.4274845923148201</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>17.899999999999999</v>
       </c>
@@ -13970,7 +13998,7 @@
         <v>4.7983048227139697</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>17.7</v>
       </c>
@@ -13999,7 +14027,7 @@
         <v>4.9238942225043898</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>13.4</v>
       </c>
@@ -14028,7 +14056,7 @@
         <v>4.7490879738284502</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>15.8</v>
       </c>
@@ -14057,7 +14085,7 @@
         <v>4.8169445894870098</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>19.3</v>
       </c>
@@ -14086,7 +14114,7 @@
         <v>4.5470139182306397</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>13.7</v>
       </c>
@@ -14115,7 +14143,7 @@
         <v>5.0168442268973799</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>4.5</v>
       </c>
@@ -14144,7 +14172,7 @@
         <v>4.6006744773393304</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>11.3</v>
       </c>
@@ -14173,7 +14201,7 @@
         <v>4.63597695004795</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>10.5</v>
       </c>
@@ -14202,7 +14230,7 @@
         <v>4.9332904925116203</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>5.6</v>
       </c>
@@ -14231,7 +14259,7 @@
         <v>4.9407077815331499</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>6.5</v>
       </c>
@@ -14260,7 +14288,7 @@
         <v>4.8732929588340701</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>9.5</v>
       </c>
@@ -14289,7 +14317,7 @@
         <v>4.8365118854379103</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>7.6</v>
       </c>
@@ -14318,7 +14346,7 @@
         <v>4.81591951368355</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>14.5</v>
       </c>
@@ -14347,7 +14375,7 @@
         <v>4.7774632954045604</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>13.2</v>
       </c>
@@ -14376,7 +14404,7 @@
         <v>4.3608261433286897</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>8.1</v>
       </c>
@@ -14405,7 +14433,7 @@
         <v>4.47515355991621</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>6.1</v>
       </c>
@@ -14434,7 +14462,7 @@
         <v>4.5384858116216398</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>9.6</v>
       </c>
@@ -14463,7 +14491,7 @@
         <v>4.8893786873616403</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>12.6</v>
       </c>
@@ -14492,7 +14520,7 @@
         <v>4.9243016556038599</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>7.3</v>
       </c>
@@ -14521,7 +14549,7 @@
         <v>4.5542115606095797</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>14.4</v>
       </c>
@@ -14550,7 +14578,7 @@
         <v>4.5876235967234598</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>10.8</v>
       </c>
@@ -14579,7 +14607,7 @@
         <v>4.9354709194410198</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>3.2</v>
       </c>
@@ -14608,7 +14636,7 @@
         <v>4.4205673461285402</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>6.3</v>
       </c>
@@ -14637,7 +14665,7 @@
         <v>4.4285045763623296</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>3.3</v>
       </c>
@@ -14666,7 +14694,7 @@
         <v>4.7805704406840501</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>19.7</v>
       </c>
@@ -14695,7 +14723,7 @@
         <v>4.9974142443541103</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>15.8</v>
       </c>
@@ -14724,7 +14752,7 @@
         <v>5.12622380354067</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>6.1</v>
       </c>
@@ -14753,7 +14781,7 @@
         <v>4.2978491750229502</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>14.3</v>
       </c>
@@ -14782,7 +14810,7 @@
         <v>4.6201548177460596</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -14811,7 +14839,7 @@
         <v>4.4709730054455701</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>16.899999999999999</v>
       </c>
@@ -14840,7 +14868,7 @@
         <v>5.1159176008207297</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -14869,7 +14897,7 @@
         <v>4.3496793505803</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -14898,7 +14926,7 @@
         <v>5.0653782292854803</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -14927,7 +14955,7 @@
         <v>4.8858357710298099</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -14956,7 +14984,7 @@
         <v>4.2920066367937002</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>13.2</v>
       </c>
@@ -14985,7 +15013,7 @@
         <v>4.3185958745834201</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>15.9</v>
       </c>
@@ -15014,7 +15042,7 @@
         <v>4.9782456505383497</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>12.8</v>
       </c>
@@ -15043,7 +15071,7 @@
         <v>5.0224711026089901</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>19.2</v>
       </c>
@@ -15072,7 +15100,7 @@
         <v>4.6324624523319304</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>3.5</v>
       </c>
@@ -15101,7 +15129,7 @@
         <v>4.9171490202935102</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>10</v>
       </c>
@@ -15130,7 +15158,7 @@
         <v>4.1930335124839697</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>7.9</v>
       </c>
@@ -15159,7 +15187,7 @@
         <v>5.2459183648994703</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>6.2</v>
       </c>
@@ -15188,7 +15216,7 @@
         <v>4.5623722329790803</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>18.2</v>
       </c>
@@ -15217,7 +15245,7 @@
         <v>4.6026086111914903</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>12.3</v>
       </c>
@@ -15246,7 +15274,7 @@
         <v>4.53339078834163</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>19.3</v>
       </c>
@@ -15275,7 +15303,7 @@
         <v>4.6965653096611799</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>12.6</v>
       </c>
@@ -15304,7 +15332,7 @@
         <v>4.8094462223826202</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>14.5</v>
       </c>
@@ -15333,7 +15361,7 @@
         <v>4.9471749787755304</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>11.2</v>
       </c>
@@ -15362,7 +15390,7 @@
         <v>4.4289967559281296</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>5.8</v>
       </c>
@@ -15391,7 +15419,7 @@
         <v>4.9692588973613603</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>11.2</v>
       </c>
@@ -15420,7 +15448,7 @@
         <v>4.60592096005022</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>6.7</v>
       </c>
@@ -15449,7 +15477,7 @@
         <v>4.9564280341336904</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>6.4</v>
       </c>
@@ -15478,7 +15506,7 @@
         <v>4.5319409476921297</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>2.9</v>
       </c>
@@ -15507,7 +15535,7 @@
         <v>5.1246625340051404</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>7.3</v>
       </c>
@@ -15536,7 +15564,7 @@
         <v>4.6494740095701603</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>12</v>
       </c>
@@ -15565,7 +15593,7 @@
         <v>4.3102303781295497</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -15594,7 +15622,7 @@
         <v>4.7799377084292898</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>2.9</v>
       </c>
@@ -15623,7 +15651,7 @@
         <v>5.1641150132568603</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>13.4</v>
       </c>
@@ -15652,7 +15680,7 @@
         <v>4.78074645259208</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>13.5</v>
       </c>
@@ -15681,7 +15709,7 @@
         <v>4.8406816775373596</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -15710,7 +15738,7 @@
         <v>4.7022518928153501</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -15739,7 +15767,7 @@
         <v>4.5005111874595602</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>12</v>
       </c>
@@ -15768,7 +15796,7 @@
         <v>4.32070982365732</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>3.4</v>
       </c>
@@ -15797,7 +15825,7 @@
         <v>4.9835227662168498</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>17.5</v>
       </c>
@@ -15826,7 +15854,7 @@
         <v>4.7404177801098601</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>15.5</v>
       </c>
@@ -15855,7 +15883,7 @@
         <v>4.6252645209456498</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>6.2</v>
       </c>
@@ -15884,7 +15912,7 @@
         <v>4.33951796806274</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>10</v>
       </c>
@@ -15913,7 +15941,7 @@
         <v>4.1294047711956701</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>12</v>
       </c>
@@ -15942,7 +15970,7 @@
         <v>4.2272854857609596</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>9</v>
       </c>
@@ -15971,7 +15999,7 @@
         <v>4.2264309458146299</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>12.4</v>
       </c>
@@ -16000,7 +16028,7 @@
         <v>4.6498372717240501</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>13.6</v>
       </c>
@@ -16029,7 +16057,7 @@
         <v>5.0310423807721598</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>18.399999999999999</v>
       </c>
@@ -16058,7 +16086,7 @@
         <v>4.8743141348715699</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>2.7</v>
       </c>
@@ -16087,7 +16115,7 @@
         <v>5.0470554607950202</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>12.9</v>
       </c>
@@ -16116,7 +16144,7 @@
         <v>4.9424762286110999</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>9</v>
       </c>
@@ -16145,7 +16173,7 @@
         <v>4.1086023925399298</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>5.2</v>
       </c>
@@ -16174,7 +16202,7 @@
         <v>4.5062785587109202</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -16203,7 +16231,7 @@
         <v>4.4404597360483997</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>11.6</v>
       </c>
@@ -16232,7 +16260,7 @@
         <v>4.9021560426390902</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>14.3</v>
       </c>
@@ -16261,7 +16289,7 @@
         <v>4.58545535593636</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>16.8</v>
       </c>
@@ -16290,7 +16318,7 @@
         <v>4.9990769286369803</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>2</v>
       </c>
@@ -16319,7 +16347,7 @@
         <v>4.2064829305241496</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>5.3</v>
       </c>
@@ -16348,7 +16376,7 @@
         <v>4.4659955641001998</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -16377,7 +16405,7 @@
         <v>4.46177696299877</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -16406,7 +16434,7 @@
         <v>4.3324007756479199</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>5.8</v>
       </c>
@@ -16435,7 +16463,7 @@
         <v>5.0425773422017697</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>13.5</v>
       </c>
@@ -16464,7 +16492,7 @@
         <v>4.8060526415498996</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>17.8</v>
       </c>
@@ -16493,7 +16521,7 @@
         <v>5.18359956807718</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>14.1</v>
       </c>
@@ -16522,7 +16550,7 @@
         <v>4.3285311917144798</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>4.8</v>
       </c>
@@ -16551,7 +16579,7 @@
         <v>5.0476779996887702</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>18.2</v>
       </c>
@@ -16580,7 +16608,7 @@
         <v>4.4268449165173802</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>17.5</v>
       </c>
@@ -16609,7 +16637,7 @@
         <v>4.7120169927597804</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>3.5</v>
       </c>
@@ -16638,7 +16666,7 @@
         <v>4.7957547546902397</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>10.1</v>
       </c>
@@ -16667,7 +16695,7 @@
         <v>4.2996670508421202</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>19</v>
       </c>
@@ -16696,7 +16724,7 @@
         <v>4.14998601492616</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>15.1</v>
       </c>
@@ -16725,7 +16753,7 @@
         <v>4.4246648413871403</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>6.8</v>
       </c>
@@ -16754,7 +16782,7 @@
         <v>5.0674783335725797</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>15</v>
       </c>
@@ -16783,7 +16811,7 @@
         <v>4.3729260756931003</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>17.8</v>
       </c>
@@ -16812,7 +16840,7 @@
         <v>5.0743730429237202</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>13.6</v>
       </c>
@@ -16841,7 +16869,7 @@
         <v>4.9394050378548</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -16870,7 +16898,7 @@
         <v>4.8619930043082897</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -16899,7 +16927,7 @@
         <v>4.9800144416878096</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>5.6</v>
       </c>
@@ -16928,7 +16956,7 @@
         <v>4.7749877683710498</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>8.9</v>
       </c>
@@ -16957,7 +16985,7 @@
         <v>5.3087233205960196</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>8.5</v>
       </c>
@@ -16986,7 +17014,7 @@
         <v>4.8545172221271997</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -17015,7 +17043,7 @@
         <v>4.5877644353707296</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>5.5</v>
       </c>
@@ -17044,7 +17072,7 @@
         <v>4.5878821513560597</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>15.8</v>
       </c>
@@ -17073,7 +17101,7 @@
         <v>5.1180267068800802</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>12.5</v>
       </c>
@@ -17102,7 +17130,7 @@
         <v>4.9726270294278399</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>15.2</v>
       </c>
@@ -17131,7 +17159,7 @@
         <v>4.5194802633978099</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>17.3</v>
       </c>
@@ -17160,7 +17188,7 @@
         <v>4.6636891645182796</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>18.8</v>
       </c>
@@ -17189,7 +17217,7 @@
         <v>4.8165464653404504</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>14.9</v>
       </c>
@@ -17218,7 +17246,7 @@
         <v>4.9496182405586504</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>14.7</v>
       </c>
@@ -17247,7 +17275,7 @@
         <v>4.97638579951749</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>18.2</v>
       </c>
@@ -17276,7 +17304,7 @@
         <v>4.4722815296037597</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>13.5</v>
       </c>
@@ -17305,7 +17333,7 @@
         <v>4.7631799952915301</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -17334,7 +17362,7 @@
         <v>4.79289948632678</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>7.6</v>
       </c>
@@ -17363,7 +17391,7 @@
         <v>4.7869175297158604</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -17392,7 +17420,7 @@
         <v>4.4308818909368997</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>17.3</v>
       </c>
@@ -17421,7 +17449,7 @@
         <v>4.67959579330482</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>6</v>
       </c>
@@ -17450,7 +17478,7 @@
         <v>4.2030060067911199</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>11.1</v>
       </c>
@@ -17479,7 +17507,7 @@
         <v>4.3713961416261498</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>10.6</v>
       </c>
@@ -17508,7 +17536,7 @@
         <v>4.6808174754304002</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>9.6</v>
       </c>
@@ -17537,7 +17565,7 @@
         <v>4.7241790526170497</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -17566,7 +17594,7 @@
         <v>4.4735803150500297</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>4</v>
       </c>
@@ -17595,7 +17623,7 @@
         <v>4.16894049574804</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>5.2</v>
       </c>
@@ -17624,7 +17652,7 @@
         <v>4.6111329867279398</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>2.5</v>
       </c>
@@ -17653,7 +17681,7 @@
         <v>4.8032122576168801</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -17682,7 +17710,7 @@
         <v>4.6065882299928598</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>16.399999999999999</v>
       </c>
@@ -17711,7 +17739,7 @@
         <v>4.62578662672255</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>15.2</v>
       </c>
@@ -17740,7 +17768,7 @@
         <v>4.2965205966945099</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>16.7</v>
       </c>
@@ -17769,7 +17797,7 @@
         <v>4.8749246112387503</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>18.899999999999999</v>
       </c>
@@ -17798,7 +17826,7 @@
         <v>4.9752419946509097</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>11.6</v>
       </c>
@@ -17827,7 +17855,7 @@
         <v>4.8604952913470303</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>11.4</v>
       </c>
@@ -17856,7 +17884,7 @@
         <v>4.6499361403848303</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>3.5</v>
       </c>
@@ -17885,7 +17913,7 @@
         <v>4.8485683289845696</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>2.6</v>
       </c>
@@ -17914,7 +17942,7 @@
         <v>5.0043587131288803</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>13</v>
       </c>
@@ -17943,7 +17971,7 @@
         <v>4.0832741579838903</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>4.2</v>
       </c>
@@ -17972,7 +18000,7 @@
         <v>4.5040529149072297</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>19.5</v>
       </c>
@@ -18001,7 +18029,7 @@
         <v>4.6904881504828202</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>17.2</v>
       </c>
@@ -18030,7 +18058,7 @@
         <v>4.41027970055538</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>6.5</v>
       </c>
@@ -18059,7 +18087,7 @@
         <v>4.81441281669</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -18088,7 +18116,7 @@
         <v>4.6704637421309201</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>8.1</v>
       </c>
@@ -18117,7 +18145,7 @@
         <v>4.6583324644567403</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>4.3</v>
       </c>
@@ -18146,7 +18174,7 @@
         <v>4.5777445611773304</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>10.9</v>
       </c>
@@ -18175,7 +18203,7 @@
         <v>5.0674169468916501</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>4.7</v>
       </c>
@@ -18204,7 +18232,7 @@
         <v>4.9836289960805296</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>8.1</v>
       </c>
@@ -18233,7 +18261,7 @@
         <v>4.30873283613938</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>7.1</v>
       </c>
@@ -18262,7 +18290,7 @@
         <v>4.2855867308107296</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>3.4</v>
       </c>
@@ -18291,7 +18319,7 @@
         <v>4.5094222601466196</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>13.9</v>
       </c>
@@ -18320,7 +18348,7 @@
         <v>5.1127450371115604</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>2.5</v>
       </c>
@@ -18349,7 +18377,7 @@
         <v>4.79589090103687</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>12.3</v>
       </c>
@@ -18378,7 +18406,7 @@
         <v>4.4722759647421899</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>4.8</v>
       </c>
@@ -18407,7 +18435,7 @@
         <v>5.0304061400764599</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>5.6</v>
       </c>
@@ -18436,7 +18464,7 @@
         <v>4.81157864689572</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>13.1</v>
       </c>
@@ -18465,7 +18493,7 @@
         <v>4.3155193466613504</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>17.7</v>
       </c>
@@ -18494,7 +18522,7 @@
         <v>4.9418236997688201</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -18523,7 +18551,7 @@
         <v>4.1542117753489904</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>18.399999999999999</v>
       </c>
@@ -18552,7 +18580,7 @@
         <v>4.6584177535344997</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>14.3</v>
       </c>
@@ -18581,7 +18609,7 @@
         <v>4.6361100736655496</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>7.6</v>
       </c>
@@ -18610,7 +18638,7 @@
         <v>4.8377780083678799</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>4.8</v>
       </c>
@@ -18639,7 +18667,7 @@
         <v>5.1390054489401003</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>7.9</v>
       </c>
@@ -18668,7 +18696,7 @@
         <v>5.1121607118177499</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>7.1</v>
       </c>
@@ -18697,7 +18725,7 @@
         <v>4.3800956557704396</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>14.7</v>
       </c>
@@ -18726,7 +18754,7 @@
         <v>4.7851288416385804</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -18755,7 +18783,7 @@
         <v>4.9488103382093902</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>14.4</v>
       </c>
@@ -18784,7 +18812,7 @@
         <v>4.7017983516866497</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>13.5</v>
       </c>
@@ -18813,7 +18841,7 @@
         <v>4.9780148132128703</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -18842,7 +18870,7 @@
         <v>4.67185417104215</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>2.6</v>
       </c>
@@ -18871,7 +18899,7 @@
         <v>4.8318379114651604</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -18900,7 +18928,7 @@
         <v>4.5016594495051896</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -18929,7 +18957,7 @@
         <v>4.7748691471881504</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>16.7</v>
       </c>
@@ -18958,7 +18986,7 @@
         <v>5.0630578729169597</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>3.6</v>
       </c>
@@ -18987,7 +19015,7 @@
         <v>5.0011061367447001</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>11.9</v>
       </c>
@@ -19016,7 +19044,7 @@
         <v>5.0947718550123202</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>18.3</v>
       </c>
@@ -19045,7 +19073,7 @@
         <v>4.5533818705239</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>11.9</v>
       </c>
@@ -19074,7 +19102,7 @@
         <v>5.0686094898617302</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>11.9</v>
       </c>
@@ -19103,7 +19131,7 @@
         <v>4.89134426680757</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>7.5</v>
       </c>
@@ -19132,7 +19160,7 @@
         <v>4.9281828131357202</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>2.4</v>
       </c>
@@ -19161,7 +19189,7 @@
         <v>4.8128201805645396</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -19190,7 +19218,7 @@
         <v>4.46534987761083</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>10.1</v>
       </c>
@@ -19219,7 +19247,7 @@
         <v>4.5202905718295696</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>18</v>
       </c>
@@ -19248,7 +19276,7 @@
         <v>4.2525190188723299</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>4.5</v>
       </c>
@@ -19277,7 +19305,7 @@
         <v>4.8322483484471297</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>9.1</v>
       </c>
@@ -19306,7 +19334,7 @@
         <v>4.5322639153688398</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>18.5</v>
       </c>
@@ -19335,7 +19363,7 @@
         <v>4.7356611090596497</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>6.5</v>
       </c>
@@ -19364,7 +19392,7 @@
         <v>4.7941534790984397</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>6.1</v>
       </c>
@@ -19393,7 +19421,7 @@
         <v>4.2981289542832899</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>9</v>
       </c>
@@ -19422,7 +19450,7 @@
         <v>4.2220097871028903</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>20</v>
       </c>
@@ -19451,7 +19479,7 @@
         <v>4.1851417399867197</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>3</v>
       </c>
@@ -19480,7 +19508,7 @@
         <v>4.2941979381589404</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>12.4</v>
       </c>
@@ -19509,7 +19537,7 @@
         <v>4.5689630794107803</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>8.9</v>
       </c>
@@ -19538,7 +19566,7 @@
         <v>5.1251023116568497</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -19567,7 +19595,7 @@
         <v>4.5329502749675301</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -19596,7 +19624,7 @@
         <v>4.3610372250151901</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>14.1</v>
       </c>
@@ -19625,7 +19653,7 @@
         <v>4.4135826803875702</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>10.3</v>
       </c>
@@ -19654,7 +19682,7 @@
         <v>4.7180411617451297</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>10.8</v>
       </c>
@@ -19683,7 +19711,7 @@
         <v>5.0668602687405802</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>11.8</v>
       </c>
@@ -19712,7 +19740,7 @@
         <v>5.0992460572857699</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>15.7</v>
       </c>
@@ -19741,7 +19769,7 @@
         <v>4.9047652771372698</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>8</v>
       </c>
@@ -19770,7 +19798,7 @@
         <v>4.1991453991511296</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>12</v>
       </c>
@@ -19799,7 +19827,7 @@
         <v>4.1556151588077102</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>10.1</v>
       </c>
@@ -19828,7 +19856,7 @@
         <v>4.34148301229542</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>2.8</v>
       </c>
@@ -19857,7 +19885,7 @@
         <v>5.0064365191385001</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>10.3</v>
       </c>
@@ -19886,7 +19914,7 @@
         <v>4.5453627334026896</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -19915,7 +19943,7 @@
         <v>5.0486776235309199</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>11.8</v>
       </c>
@@ -19944,7 +19972,7 @@
         <v>5.1270608117713898</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>7.9</v>
       </c>
@@ -19973,7 +20001,7 @@
         <v>5.1219324283083596</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>3.3</v>
       </c>
@@ -20002,7 +20030,7 @@
         <v>4.5160099189357004</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>8.6</v>
       </c>
@@ -20031,7 +20059,7 @@
         <v>4.7242406795627501</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>9.6999999999999993</v>
       </c>
@@ -20060,7 +20088,7 @@
         <v>4.9684456618502502</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>16.5</v>
       </c>
@@ -20089,7 +20117,7 @@
         <v>4.6885272320064502</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>15.4</v>
       </c>
@@ -20118,7 +20146,7 @@
         <v>4.9102162306025203</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>11</v>
       </c>
@@ -20147,7 +20175,7 @@
         <v>4.1330807276128203</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>17</v>
       </c>
@@ -20176,7 +20204,7 @@
         <v>4.2620911725595203</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>7.4</v>
       </c>
@@ -20205,7 +20233,7 @@
         <v>4.5760215627875196</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>17.8</v>
       </c>
@@ -20234,7 +20262,7 @@
         <v>5.0304194155208197</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>5.3</v>
       </c>
@@ -20263,7 +20291,7 @@
         <v>4.5974395951202203</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>17.3</v>
       </c>
@@ -20292,7 +20320,7 @@
         <v>4.4989807696727304</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>8.5</v>
       </c>
@@ -20321,7 +20349,7 @@
         <v>4.7340231192843696</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>15.7</v>
       </c>
@@ -20350,7 +20378,7 @@
         <v>4.98772645506636</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>15.1</v>
       </c>
@@ -20379,7 +20407,7 @@
         <v>4.3591251655491803</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>3.8</v>
       </c>
@@ -20408,7 +20436,7 @@
         <v>5.1627071685986996</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>12.5</v>
       </c>
@@ -20437,7 +20465,7 @@
         <v>4.6315687020062297</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>15.6</v>
       </c>
@@ -20466,7 +20494,7 @@
         <v>4.8919977618510497</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>13.7</v>
       </c>
@@ -20495,7 +20523,7 @@
         <v>4.9470518531816898</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>13.7</v>
       </c>
@@ -20524,7 +20552,7 @@
         <v>4.9281942732553503</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -20553,7 +20581,7 @@
         <v>4.3361738331866002</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>9.9</v>
       </c>
@@ -20582,7 +20610,7 @@
         <v>4.8900096063090999</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>14.3</v>
       </c>
@@ -20611,7 +20639,7 @@
         <v>4.6256778176877704</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>12.6</v>
       </c>
@@ -20640,7 +20668,7 @@
         <v>4.8537292088705097</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>18</v>
       </c>
@@ -20669,7 +20697,7 @@
         <v>4.1773601707108199</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -20698,7 +20726,7 @@
         <v>4.4545522169343501</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>14.7</v>
       </c>
@@ -20727,7 +20755,7 @@
         <v>5.0430903166550998</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>6.3</v>
       </c>
@@ -20756,7 +20784,7 @@
         <v>4.5095635142018198</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>17.5</v>
       </c>
@@ -20785,7 +20813,7 @@
         <v>4.7587992030375403</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>7.2</v>
       </c>
@@ -20814,7 +20842,7 @@
         <v>4.4769496675925202</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>2</v>
       </c>
@@ -20843,7 +20871,7 @@
         <v>4.2707384739260297</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>14.2</v>
       </c>
@@ -20872,7 +20900,7 @@
         <v>4.3818978266712696</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>19.2</v>
       </c>
@@ -20901,7 +20929,7 @@
         <v>4.5392175152739602</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -20930,7 +20958,7 @@
         <v>4.3253112117164001</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>7.9</v>
       </c>
@@ -20959,7 +20987,7 @@
         <v>5.1478874851813803</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>19.3</v>
       </c>
@@ -20988,7 +21016,7 @@
         <v>4.6303802868959796</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>14</v>
       </c>
@@ -21017,7 +21045,7 @@
         <v>4.1178801661352002</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>19.3</v>
       </c>
@@ -21046,7 +21074,7 @@
         <v>4.65127238617786</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>14.7</v>
       </c>
@@ -21075,7 +21103,7 @@
         <v>5.0851960161822598</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>10.1</v>
       </c>
@@ -21104,7 +21132,7 @@
         <v>4.26467086485063</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>16.7</v>
       </c>
@@ -21133,7 +21161,7 @@
         <v>5.0809597818433696</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -21162,7 +21190,7 @@
         <v>4.6711363592349597</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>13.8</v>
       </c>
@@ -21191,7 +21219,7 @@
         <v>4.9450461736581701</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>11</v>
       </c>
@@ -21220,7 +21248,7 @@
         <v>4.13954251179835</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>7</v>
       </c>
@@ -21249,7 +21277,7 @@
         <v>4.1477417916909403</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>14.8</v>
       </c>
@@ -21278,7 +21306,7 @@
         <v>5.01622133530776</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>18.2</v>
       </c>
@@ -21307,7 +21335,7 @@
         <v>4.4070246628058198</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>12.3</v>
       </c>
@@ -21336,7 +21364,7 @@
         <v>4.4849924947199398</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>15.2</v>
       </c>
@@ -21365,7 +21393,7 @@
         <v>4.5310696897991702</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>14.7</v>
       </c>
@@ -21394,7 +21422,7 @@
         <v>5.1465981202286404</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>12.3</v>
       </c>
@@ -21423,7 +21451,7 @@
         <v>4.79845596194422</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>18</v>
       </c>
@@ -21452,7 +21480,7 @@
         <v>4.2207810746896897</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>18.7</v>
       </c>
@@ -21481,7 +21509,7 @@
         <v>4.9745311303427302</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>14.1</v>
       </c>
@@ -21510,7 +21538,7 @@
         <v>4.3581640920495799</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>5.8</v>
       </c>
@@ -21539,7 +21567,7 @@
         <v>5.0025369197682998</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>19.5</v>
       </c>
@@ -21568,7 +21596,7 @@
         <v>4.8400786634324602</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>2.8</v>
       </c>
@@ -21597,7 +21625,7 @@
         <v>5.0276307608354598</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>7.2</v>
       </c>
@@ -21626,7 +21654,7 @@
         <v>4.3466051316078396</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>15.1</v>
       </c>
@@ -21655,7 +21683,7 @@
         <v>4.4665562419506202</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>3.3</v>
       </c>
@@ -21684,7 +21712,7 @@
         <v>4.6670647449063498</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -21713,7 +21741,7 @@
         <v>4.99172081071137</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -21742,7 +21770,7 @@
         <v>4.4962426477975503</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -21771,7 +21799,7 @@
         <v>4.5177977343143301</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>9</v>
       </c>
@@ -21800,7 +21828,7 @@
         <v>4.38127486299088</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>6.8</v>
       </c>
@@ -21829,7 +21857,7 @@
         <v>4.9877021655430198</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>12.8</v>
       </c>
@@ -21858,7 +21886,7 @@
         <v>4.9114618296407002</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>15.6</v>
       </c>
@@ -21887,7 +21915,7 @@
         <v>4.7879973953872801</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>5.4</v>
       </c>
@@ -21916,7 +21944,7 @@
         <v>4.6829643333690303</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>12.6</v>
       </c>
@@ -21945,7 +21973,7 @@
         <v>4.9968036061441898</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>9.9</v>
       </c>
@@ -21974,7 +22002,7 @@
         <v>4.9628813175850102</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>14.1</v>
       </c>
@@ -22003,7 +22031,7 @@
         <v>4.3137060817773802</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>15.5</v>
       </c>
@@ -22032,7 +22060,7 @@
         <v>4.74496092089319</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>20</v>
       </c>
@@ -22061,7 +22089,7 @@
         <v>4.21692455852018</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>19.3</v>
       </c>
@@ -22090,7 +22118,7 @@
         <v>4.45685636195984</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>14.7</v>
       </c>
@@ -22119,7 +22147,7 @@
         <v>4.8816856172948597</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>14.1</v>
       </c>
@@ -22148,7 +22176,7 @@
         <v>4.4801382799881404</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>3.4</v>
       </c>
@@ -22177,7 +22205,7 @@
         <v>4.70358095305094</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -22206,7 +22234,7 @@
         <v>4.8540139552058301</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>8.6</v>
       </c>
@@ -22235,7 +22263,7 @@
         <v>4.8997607170634003</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>11.5</v>
       </c>
@@ -22264,7 +22292,7 @@
         <v>4.8720728770025898</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -22293,7 +22321,7 @@
         <v>4.4658973273961804</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>15.6</v>
       </c>
@@ -22322,7 +22350,7 @@
         <v>5.0100193482937403</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>15.3</v>
       </c>
@@ -22351,7 +22379,7 @@
         <v>4.55937234473092</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>13.3</v>
       </c>
@@ -22380,7 +22408,7 @@
         <v>4.6802895195454797</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>13.2</v>
       </c>
@@ -22409,7 +22437,7 @@
         <v>4.4521287825845297</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>11.8</v>
       </c>
@@ -22438,7 +22466,7 @@
         <v>4.9688540294815802</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -22467,7 +22495,7 @@
         <v>4.5565337461854103</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>18.899999999999999</v>
       </c>
@@ -22496,7 +22524,7 @@
         <v>5.0740939130606604</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>19.100000000000001</v>
       </c>
@@ -22525,7 +22553,7 @@
         <v>4.4602442706287801</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -22554,7 +22582,7 @@
         <v>4.6269437477340096</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -22583,7 +22611,7 @@
         <v>4.5871166682170497</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>12.3</v>
       </c>
@@ -22612,7 +22640,7 @@
         <v>4.7881286559501204</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -22641,7 +22669,7 @@
         <v>4.8862553499232897</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>12.7</v>
       </c>
@@ -22670,7 +22698,7 @@
         <v>5.0966059054152</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>16.399999999999999</v>
       </c>
@@ -22699,7 +22727,7 @@
         <v>4.6638067368644798</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>9.1</v>
       </c>
@@ -22728,7 +22756,7 @@
         <v>4.5708152836723901</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -22757,7 +22785,7 @@
         <v>4.5482926933133099</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>5.2</v>
       </c>
@@ -22786,7 +22814,7 @@
         <v>4.4506775099317704</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>16.600000000000001</v>
       </c>
@@ -22815,7 +22843,7 @@
         <v>4.7976860460482902</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>6</v>
       </c>
@@ -22844,7 +22872,7 @@
         <v>4.1034381863840803</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -22873,7 +22901,7 @@
         <v>4.9295898986029103</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>3.3</v>
       </c>
@@ -22902,7 +22930,7 @@
         <v>4.6644567559865999</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>17.5</v>
       </c>
@@ -22931,7 +22959,7 @@
         <v>4.73333514881576</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -22960,7 +22988,7 @@
         <v>4.4949308169088198</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>4.5</v>
       </c>
@@ -22989,7 +23017,7 @@
         <v>4.8157548922485898</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>15.8</v>
       </c>
@@ -23018,7 +23046,7 @@
         <v>5.1576620610000701</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>14.4</v>
       </c>
@@ -23047,7 +23075,7 @@
         <v>4.7471430651125797</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>5.3</v>
       </c>
@@ -23076,7 +23104,7 @@
         <v>4.7408254515469297</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>14.5</v>
       </c>
@@ -23105,7 +23133,7 @@
         <v>4.8549219648658202</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>11.2</v>
       </c>
@@ -23134,7 +23162,7 @@
         <v>4.6740229324715301</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>13.6</v>
       </c>
@@ -23163,7 +23191,7 @@
         <v>5.0276505749363798</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>16.399999999999999</v>
       </c>
@@ -23192,7 +23220,7 @@
         <v>4.6632055268653803</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>16.7</v>
       </c>
@@ -23221,7 +23249,7 @@
         <v>5.0505957409114099</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>12.1</v>
       </c>
@@ -23250,7 +23278,7 @@
         <v>4.4287440113871996</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>3.6</v>
       </c>
@@ -23279,7 +23307,7 @@
         <v>4.9645817469367</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>12.8</v>
       </c>
@@ -23308,7 +23336,7 @@
         <v>5.1992568822877496</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>4.7</v>
       </c>
@@ -23337,7 +23365,7 @@
         <v>5.0119678062231197</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>6.4</v>
       </c>
@@ -23366,7 +23394,7 @@
         <v>4.8137963729387998</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>7.5</v>
       </c>
@@ -23395,7 +23423,7 @@
         <v>4.8796800041452499</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>9.4</v>
       </c>
@@ -23424,7 +23452,7 @@
         <v>4.7477094611099098</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>13.6</v>
       </c>
@@ -23453,7 +23481,7 @@
         <v>4.7683965744929599</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>13.8</v>
       </c>
@@ -23482,7 +23510,7 @@
         <v>5.0089857270784401</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>6.7</v>
       </c>
@@ -23511,7 +23539,7 @@
         <v>4.9798196692032803</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -23540,7 +23568,7 @@
         <v>5.16129798925859</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>4.2</v>
       </c>
@@ -23569,7 +23597,7 @@
         <v>4.4777233870086102</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -23598,7 +23626,7 @@
         <v>5.0028925739201702</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -23627,7 +23655,7 @@
         <v>4.7518314859761999</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>18</v>
       </c>
@@ -23656,7 +23684,7 @@
         <v>4.2729397418830199</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>8</v>
       </c>
@@ -23685,7 +23713,7 @@
         <v>4.2707596299331296</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>6.1</v>
       </c>
@@ -23714,7 +23742,7 @@
         <v>4.4951658537348198</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>16.2</v>
       </c>
@@ -23743,7 +23771,7 @@
         <v>4.3652093528183604</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>6.7</v>
       </c>
@@ -23772,7 +23800,7 @@
         <v>4.8970414206673896</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>12.6</v>
       </c>
@@ -23801,7 +23829,7 @@
         <v>4.9194026578161401</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>11.1</v>
       </c>
@@ -23830,7 +23858,7 @@
         <v>4.3291962510802504</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>5.6</v>
       </c>
@@ -23859,7 +23887,7 @@
         <v>4.89869781894261</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>14.1</v>
       </c>
@@ -23888,7 +23916,7 @@
         <v>4.3517706676458001</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>6.2</v>
       </c>
@@ -23917,7 +23945,7 @@
         <v>4.3543375816355399</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>14.9</v>
       </c>
@@ -23946,7 +23974,7 @@
         <v>5.1073929046009203</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>13.9</v>
       </c>
@@ -23975,7 +24003,7 @@
         <v>5.0712649571557504</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>18.2</v>
       </c>
@@ -24004,7 +24032,7 @@
         <v>4.5062543421654198</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -24033,7 +24061,7 @@
         <v>4.8102022814590102</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -24062,7 +24090,7 @@
         <v>5.0147824079193803</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>10.8</v>
       </c>
@@ -24091,7 +24119,7 @@
         <v>5.0272029267957699</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>5.6</v>
       </c>
@@ -24120,7 +24148,7 @@
         <v>4.6184324022305798</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>5</v>
       </c>
@@ -24149,7 +24177,7 @@
         <v>4.0628646387185796</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>19.7</v>
       </c>
@@ -24178,7 +24206,7 @@
         <v>5.0744666278444299</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>2.1</v>
       </c>
@@ -24207,7 +24235,7 @@
         <v>4.3712597298732199</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>5.9</v>
       </c>
@@ -24236,7 +24264,7 @@
         <v>5.1294818761664702</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>17.2</v>
       </c>
@@ -24265,7 +24293,7 @@
         <v>4.42334286482164</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>15.4</v>
       </c>
@@ -24294,7 +24322,7 @@
         <v>4.6264625416515504</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>9</v>
       </c>
@@ -24323,7 +24351,7 @@
         <v>4.1449054383635602</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -24352,7 +24380,7 @@
         <v>4.6798033496801201</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>17.2</v>
       </c>
@@ -24381,7 +24409,7 @@
         <v>4.4604604431983699</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>18</v>
       </c>
@@ -24410,7 +24438,7 @@
         <v>4.2811593221202298</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>4.5</v>
       </c>
@@ -24439,7 +24467,7 @@
         <v>4.7563532329485598</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>10.3</v>
       </c>
@@ -24468,7 +24496,7 @@
         <v>4.5901280754093801</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>11.6</v>
       </c>
@@ -24497,7 +24525,7 @@
         <v>4.9304652801429301</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -24526,7 +24554,7 @@
         <v>4.6430685246574903</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>19.7</v>
       </c>
@@ -24555,7 +24583,7 @@
         <v>5.0299869666860202</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>5.7</v>
       </c>
@@ -24584,7 +24612,7 @@
         <v>5.16404836489325</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>11.7</v>
       </c>
@@ -24613,7 +24641,7 @@
         <v>4.9597619114010003</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>2.8</v>
       </c>
@@ -24642,7 +24670,7 @@
         <v>4.9488375984634603</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>5.7</v>
       </c>
@@ -24671,7 +24699,7 @@
         <v>4.91430193990014</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>12.8</v>
       </c>
@@ -24700,7 +24728,7 @@
         <v>4.9655739845297999</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>19.7</v>
       </c>
@@ -24729,7 +24757,7 @@
         <v>5.1370553585616499</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <v>6.5</v>
       </c>
@@ -24758,7 +24786,7 @@
         <v>4.9141691796357101</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <v>10.5</v>
       </c>
@@ -24787,7 +24815,7 @@
         <v>4.9003010604212296</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -24816,7 +24844,7 @@
         <v>4.3904780769812399</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <v>12.7</v>
       </c>
@@ -24845,7 +24873,7 @@
         <v>4.81702017916062</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <v>12.4</v>
       </c>
@@ -24874,7 +24902,7 @@
         <v>4.6339980776644101</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -24903,7 +24931,7 @@
         <v>4.9386893311718998</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <v>12.2</v>
       </c>
@@ -24932,7 +24960,7 @@
         <v>4.4488204859906402</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>15.1</v>
       </c>
@@ -24961,7 +24989,7 @@
         <v>4.3979669577440603</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -24990,7 +25018,7 @@
         <v>4.3381611510545603</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -25019,7 +25047,7 @@
         <v>4.4266819208136301</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <v>9.4</v>
       </c>
@@ -25048,7 +25076,7 @@
         <v>4.8092253668092901</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <v>11.3</v>
       </c>
@@ -25077,7 +25105,7 @@
         <v>4.4207711566802699</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <v>14.9</v>
       </c>
@@ -25106,7 +25134,7 @@
         <v>5.0009996880449696</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <v>8.6</v>
       </c>
@@ -25135,7 +25163,7 @@
         <v>4.8191075778918098</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <v>6.1</v>
       </c>
@@ -25164,7 +25192,7 @@
         <v>4.1950526749385801</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <v>5.9</v>
       </c>
@@ -25193,7 +25221,7 @@
         <v>5.0277594429749897</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <v>10.6</v>
       </c>
@@ -25222,7 +25250,7 @@
         <v>4.8683074662742003</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>6.6</v>
       </c>
@@ -25251,7 +25279,7 @@
         <v>4.9787230191781102</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -25280,7 +25308,7 @@
         <v>5.0206861944649201</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <v>14.2</v>
       </c>
@@ -25309,7 +25337,7 @@
         <v>4.4360313792222197</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <v>10.9</v>
       </c>
@@ -25338,7 +25366,7 @@
         <v>5.1679724371067399</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -25367,7 +25395,7 @@
         <v>4.7678957186081998</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -25396,7 +25424,7 @@
         <v>4.5257553748624799</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <v>18.8</v>
       </c>
@@ -25425,7 +25453,7 @@
         <v>4.8742475734687902</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <v>8</v>
       </c>
@@ -25454,7 +25482,7 @@
         <v>4.2295641211662502</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>10.3</v>
       </c>
@@ -25483,7 +25511,7 @@
         <v>4.6493782393488097</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <v>12.1</v>
       </c>
@@ -25512,7 +25540,7 @@
         <v>4.4620082579501696</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <v>12.6</v>
       </c>
@@ -25541,7 +25569,7 @@
         <v>4.7500165407004697</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <v>2.7</v>
       </c>
@@ -25570,7 +25598,7 @@
         <v>4.8194322906884404</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>10.3</v>
       </c>
@@ -25599,7 +25627,7 @@
         <v>4.5199018307662504</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <v>19.100000000000001</v>
       </c>
@@ -25628,7 +25656,7 @@
         <v>4.3461337350537601</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <v>12</v>
       </c>
@@ -25657,7 +25685,7 @@
         <v>4.1987828416693098</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -25686,7 +25714,7 @@
         <v>4.9469856135367998</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A874" s="1">
         <v>13.9</v>
       </c>
@@ -25715,7 +25743,7 @@
         <v>4.9238766246020598</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A875" s="1">
         <v>6.7</v>
       </c>
@@ -25744,7 +25772,7 @@
         <v>4.9077747152262203</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A876" s="1">
         <v>12.4</v>
       </c>
@@ -25773,7 +25801,7 @@
         <v>4.6325876318036903</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A877" s="1">
         <v>10.1</v>
       </c>
@@ -25802,7 +25830,7 @@
         <v>4.3475686988405799</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A878" s="1">
         <v>6.3</v>
       </c>
@@ -25831,7 +25859,7 @@
         <v>4.5603340566431703</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A879" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -25860,7 +25888,7 @@
         <v>4.5043006185839403</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A880" s="1">
         <v>11.7</v>
       </c>
@@ -25889,7 +25917,7 @@
         <v>4.97934749803506</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A881" s="1">
         <v>19.2</v>
       </c>
@@ -25918,7 +25946,7 @@
         <v>4.5845909263040099</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A882" s="1">
         <v>11.2</v>
       </c>
@@ -25947,7 +25975,7 @@
         <v>4.5654044865819703</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A883" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -25976,7 +26004,7 @@
         <v>4.8454090295089101</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A884" s="1">
         <v>11.3</v>
       </c>
@@ -26005,7 +26033,7 @@
         <v>4.5020691030620901</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885" s="1">
         <v>4.3</v>
       </c>
@@ -26034,7 +26062,7 @@
         <v>4.6638484260123301</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A886" s="1">
         <v>3.1</v>
       </c>
@@ -26063,7 +26091,7 @@
         <v>4.4199730059132003</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A887" s="1">
         <v>4</v>
       </c>
@@ -26092,7 +26120,7 @@
         <v>4.2591857048747297</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A888" s="1">
         <v>7.8</v>
       </c>
@@ -26121,7 +26149,7 @@
         <v>5.02579648789962</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A889" s="1">
         <v>15.3</v>
       </c>
@@ -26150,7 +26178,7 @@
         <v>4.7446477846953004</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A890" s="1">
         <v>13.1</v>
       </c>
@@ -26179,7 +26207,7 @@
         <v>4.2883078108796999</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A891" s="1">
         <v>8.9</v>
       </c>
@@ -26208,7 +26236,7 @@
         <v>4.90195581197972</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A892" s="1">
         <v>12.2</v>
       </c>
@@ -26237,7 +26265,7 @@
         <v>4.49108486337974</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A893" s="1">
         <v>3.7</v>
       </c>
@@ -26266,7 +26294,7 @@
         <v>4.9310795399835703</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A894" s="1">
         <v>2.6</v>
       </c>
@@ -26295,7 +26323,7 @@
         <v>5.0405595432420904</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A895" s="1">
         <v>3.9</v>
       </c>
@@ -26324,7 +26352,7 @@
         <v>4.9219010015282798</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A896" s="1">
         <v>14.4</v>
       </c>
@@ -26353,7 +26381,7 @@
         <v>4.6783104197018002</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A897" s="1">
         <v>15.2</v>
       </c>
@@ -26382,7 +26410,7 @@
         <v>4.4850199551485099</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A898" s="1">
         <v>5.9</v>
       </c>
@@ -26411,7 +26439,7 @@
         <v>4.9614584168344003</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A899" s="1">
         <v>14.9</v>
       </c>
@@ -26440,7 +26468,7 @@
         <v>5.0364872969858396</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A900" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -26469,7 +26497,7 @@
         <v>4.5382466773406396</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A901" s="1">
         <v>6.5</v>
       </c>
@@ -26498,7 +26526,7 @@
         <v>4.8356479177042297</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A902" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -26527,7 +26555,7 @@
         <v>4.9362698311585902</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A903" s="1">
         <v>3.4</v>
       </c>
@@ -26556,7 +26584,7 @@
         <v>4.7113166303505603</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A904" s="1">
         <v>8.9</v>
       </c>
@@ -26585,7 +26613,7 @@
         <v>4.9552650055374503</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A905" s="1">
         <v>14.7</v>
       </c>
@@ -26614,7 +26642,7 @@
         <v>4.9947639158524897</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A906" s="1">
         <v>16.3</v>
       </c>
@@ -26643,7 +26671,7 @@
         <v>4.6425895778824904</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A907" s="1">
         <v>8.4</v>
       </c>
@@ -26672,7 +26700,7 @@
         <v>4.7409358963752499</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A908" s="1">
         <v>16.2</v>
       </c>
@@ -26701,7 +26729,7 @@
         <v>4.4921739014752298</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A909" s="1">
         <v>10.9</v>
       </c>
@@ -26730,7 +26758,7 @@
         <v>4.96416170199912</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A910" s="1">
         <v>12.2</v>
       </c>
@@ -26759,7 +26787,7 @@
         <v>4.7967803263125601</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A911" s="1">
         <v>4.7</v>
       </c>
@@ -26788,7 +26816,7 @@
         <v>4.7503577411474103</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A912" s="1">
         <v>8.1</v>
       </c>
@@ -26817,7 +26845,7 @@
         <v>4.4346809672141303</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A913" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -26846,7 +26874,7 @@
         <v>5.0093826545264202</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A914" s="1">
         <v>19.5</v>
       </c>
@@ -26875,7 +26903,7 @@
         <v>4.7467050167070104</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A915" s="1">
         <v>5.9</v>
       </c>
@@ -26904,7 +26932,7 @@
         <v>4.9416291487472304</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A916" s="1">
         <v>9.4</v>
       </c>
@@ -26933,7 +26961,7 @@
         <v>4.6709113150991799</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A917" s="1">
         <v>6.1</v>
       </c>
@@ -26962,7 +26990,7 @@
         <v>4.2704595652562602</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A918" s="1">
         <v>19.7</v>
       </c>
@@ -26991,7 +27019,7 @@
         <v>4.8821114556433098</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A919" s="1">
         <v>7.7</v>
       </c>
@@ -27020,7 +27048,7 @@
         <v>4.9844853065146699</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A920" s="1">
         <v>6.5</v>
       </c>
@@ -27049,7 +27077,7 @@
         <v>4.6248784133378003</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921" s="1">
         <v>8.1</v>
       </c>
@@ -27078,7 +27106,7 @@
         <v>4.3977186931978496</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A922" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -27107,7 +27135,7 @@
         <v>4.8437820084723402</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A923" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -27136,7 +27164,7 @@
         <v>5.0689765721452398</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A924" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -27165,7 +27193,7 @@
         <v>4.6321879720757497</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A925" s="1">
         <v>17.5</v>
       </c>
@@ -27194,7 +27222,7 @@
         <v>4.9257800913914602</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A926" s="1">
         <v>8.6</v>
       </c>
@@ -27223,7 +27251,7 @@
         <v>4.9262531782757</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A927" s="1">
         <v>18.8</v>
       </c>
@@ -27252,7 +27280,7 @@
         <v>5.0112561441408996</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A928" s="1">
         <v>16.8</v>
       </c>
@@ -27281,7 +27309,7 @@
         <v>4.99660298488772</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A929" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -27310,7 +27338,7 @@
         <v>4.4028449171995501</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A930" s="1">
         <v>19.7</v>
       </c>
@@ -27339,7 +27367,7 @@
         <v>5.1363793009179002</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A931" s="1">
         <v>2.5</v>
       </c>
@@ -27368,7 +27396,7 @@
         <v>4.8063758846606603</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A932" s="1">
         <v>2.9</v>
       </c>
@@ -27397,7 +27425,7 @@
         <v>4.9594870056671603</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A933" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -27426,7 +27454,7 @@
         <v>5.0490249322093401</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A934" s="1">
         <v>17.7</v>
       </c>
@@ -27455,7 +27483,7 @@
         <v>4.9732383884123301</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A935" s="1">
         <v>13.2</v>
       </c>
@@ -27484,7 +27512,7 @@
         <v>4.4428895234537702</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A936" s="1">
         <v>12.5</v>
       </c>
@@ -27513,7 +27541,7 @@
         <v>4.8750188312033798</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A937" s="1">
         <v>12.6</v>
       </c>
@@ -27542,7 +27570,7 @@
         <v>4.8666227919285596</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A938" s="1">
         <v>11.6</v>
       </c>
@@ -27571,7 +27599,7 @@
         <v>4.8431854730454802</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A939" s="1">
         <v>12.1</v>
       </c>
@@ -27600,7 +27628,7 @@
         <v>4.2039452618522102</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A940" s="1">
         <v>16.899999999999999</v>
       </c>
@@ -27629,7 +27657,7 @@
         <v>5.0936234498368202</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A941" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -27658,7 +27686,7 @@
         <v>4.35900355227015</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A942" s="1">
         <v>12.2</v>
       </c>
@@ -27687,7 +27715,7 @@
         <v>4.5124948030783401</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A943" s="1">
         <v>4.5</v>
       </c>
@@ -27716,7 +27744,7 @@
         <v>4.8137811928643499</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A944" s="1">
         <v>4</v>
       </c>
@@ -27745,7 +27773,7 @@
         <v>4.1304785043233103</v>
       </c>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A945" s="1">
         <v>2.1</v>
       </c>
@@ -27774,7 +27802,7 @@
         <v>4.4476174304436897</v>
       </c>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A946" s="1">
         <v>8</v>
       </c>
@@ -27803,7 +27831,7 @@
         <v>4.3260831864616396</v>
       </c>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A947" s="1">
         <v>10.8</v>
       </c>
@@ -27832,7 +27860,7 @@
         <v>5.0110739186831603</v>
       </c>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A948" s="1">
         <v>12.5</v>
       </c>
@@ -27861,7 +27889,7 @@
         <v>4.7834655364150596</v>
       </c>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A949" s="1">
         <v>18.8</v>
       </c>
@@ -27890,7 +27918,7 @@
         <v>4.9288682232477603</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A950" s="1">
         <v>10.5</v>
       </c>
@@ -27919,7 +27947,7 @@
         <v>4.8713530572747903</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A951" s="1">
         <v>17.2</v>
       </c>
@@ -27948,7 +27976,7 @@
         <v>4.3904932545275699</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A952" s="1">
         <v>10.5</v>
       </c>
@@ -27977,7 +28005,7 @@
         <v>4.8133428054419003</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A953" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -28006,7 +28034,7 @@
         <v>4.6425701431946003</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A954" s="1">
         <v>18.899999999999999</v>
       </c>
@@ -28035,7 +28063,7 @@
         <v>4.9082647102397496</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A955" s="1">
         <v>3.4</v>
       </c>
@@ -28064,7 +28092,7 @@
         <v>4.64287210833713</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A956" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -28093,7 +28121,7 @@
         <v>4.9754269455589402</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A957" s="1">
         <v>4.7</v>
       </c>
@@ -28122,7 +28150,7 @@
         <v>4.93044580349427</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A958" s="1">
         <v>14.6</v>
       </c>
@@ -28151,7 +28179,7 @@
         <v>4.86748479574507</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A959" s="1">
         <v>8</v>
       </c>
@@ -28180,7 +28208,7 @@
         <v>4.0962159927149999</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A960" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -28209,7 +28237,7 @@
         <v>4.9818042986729303</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A961" s="1">
         <v>12.4</v>
       </c>
@@ -28238,7 +28266,7 @@
         <v>4.5969347219848897</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A962" s="1">
         <v>11.5</v>
       </c>
@@ -28267,7 +28295,7 @@
         <v>4.7022980023319603</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A963" s="1">
         <v>19.5</v>
       </c>
@@ -28296,7 +28324,7 @@
         <v>4.7074244489777604</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A964" s="1">
         <v>7.3</v>
       </c>
@@ -28325,7 +28353,7 @@
         <v>4.5508410128291201</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A965" s="1">
         <v>18.8</v>
       </c>
@@ -28354,7 +28382,7 @@
         <v>5.1062830298966002</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A966" s="1">
         <v>11.8</v>
       </c>
@@ -28383,7 +28411,7 @@
         <v>5.0222006151072804</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A967" s="1">
         <v>10.6</v>
       </c>
@@ -28412,7 +28440,7 @@
         <v>4.91239932349061</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A968" s="1">
         <v>15.5</v>
       </c>
@@ -28441,7 +28469,7 @@
         <v>4.7480093278687603</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A969" s="1">
         <v>17</v>
       </c>
@@ -28470,7 +28498,7 @@
         <v>4.1185842654045999</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A970" s="1">
         <v>6.5</v>
       </c>
@@ -28499,7 +28527,7 @@
         <v>4.7831204984897102</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A971" s="1">
         <v>10.7</v>
       </c>
@@ -28528,7 +28556,7 @@
         <v>5.0951067709862397</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A972" s="1">
         <v>14.9</v>
       </c>
@@ -28557,7 +28585,7 @@
         <v>5.1166901149828803</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A973" s="1">
         <v>12.9</v>
       </c>
@@ -28586,7 +28614,7 @@
         <v>4.8785072517785997</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A974" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -28615,7 +28643,7 @@
         <v>4.4984544608525496</v>
       </c>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A975" s="1">
         <v>15.1</v>
       </c>
@@ -28644,7 +28672,7 @@
         <v>4.3445820923857799</v>
       </c>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A976" s="1">
         <v>12.6</v>
       </c>
@@ -28673,7 +28701,7 @@
         <v>4.6771861240157397</v>
       </c>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A977" s="1">
         <v>10.1</v>
       </c>
@@ -28702,7 +28730,7 @@
         <v>4.3730024861419103</v>
       </c>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A978" s="1">
         <v>13.2</v>
       </c>
@@ -28731,7 +28759,7 @@
         <v>4.7393840843077797</v>
       </c>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A979" s="1">
         <v>15.2</v>
       </c>
@@ -28760,7 +28788,7 @@
         <v>4.5160632245346299</v>
       </c>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A980" s="1">
         <v>8.6</v>
       </c>
@@ -28789,7 +28817,7 @@
         <v>4.7487001646217699</v>
       </c>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A981" s="1">
         <v>19.8</v>
       </c>
@@ -28818,7 +28846,7 @@
         <v>4.8997007975014002</v>
       </c>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A982" s="1">
         <v>10.9</v>
       </c>
@@ -28847,7 +28875,7 @@
         <v>5.0558160047865996</v>
       </c>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A983" s="1">
         <v>12.4</v>
       </c>
@@ -28876,7 +28904,7 @@
         <v>4.6945956256916004</v>
       </c>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A984" s="1">
         <v>10.3</v>
       </c>
@@ -28905,7 +28933,7 @@
         <v>4.6559843507030596</v>
       </c>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A985" s="1">
         <v>15.3</v>
       </c>
@@ -28934,7 +28962,7 @@
         <v>4.6094402655155697</v>
       </c>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A986" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -28963,7 +28991,7 @@
         <v>4.8950043194809902</v>
       </c>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A987" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -28992,7 +29020,7 @@
         <v>4.6359040602537904</v>
       </c>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A988" s="1">
         <v>3.9</v>
       </c>
@@ -29021,7 +29049,7 @@
         <v>5.09164881791936</v>
       </c>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A989" s="1">
         <v>10.8</v>
       </c>
@@ -29050,7 +29078,7 @@
         <v>4.97683350532688</v>
       </c>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A990" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -29079,7 +29107,7 @@
         <v>5.0803758128318899</v>
       </c>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A991" s="1">
         <v>7</v>
       </c>
@@ -29108,7 +29136,7 @@
         <v>4.06742586850301</v>
       </c>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A992" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -29137,7 +29165,7 @@
         <v>4.7445642480031402</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A993" s="1">
         <v>3.9</v>
       </c>
@@ -29166,7 +29194,7 @@
         <v>4.9435044860270896</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A994" s="1">
         <v>11.6</v>
       </c>
@@ -29195,7 +29223,7 @@
         <v>5.0445025703340098</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A995" s="1">
         <v>3.2</v>
       </c>
@@ -29224,7 +29252,7 @@
         <v>4.6520248942056197</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A996" s="1">
         <v>10.6</v>
       </c>
@@ -29253,7 +29281,7 @@
         <v>4.6669636476649803</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A997" s="1">
         <v>11.3</v>
       </c>
@@ -29282,7 +29310,7 @@
         <v>4.5676894379577497</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A998" s="1">
         <v>3.7</v>
       </c>
@@ -29311,7 +29339,7 @@
         <v>4.9296437604572398</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A999" s="1">
         <v>14.3</v>
       </c>
@@ -29340,7 +29368,7 @@
         <v>4.5658900817281403</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1000" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -29369,7 +29397,7 @@
         <v>4.2583210552645898</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1001" s="1">
         <v>2.4</v>
       </c>
@@ -29398,7 +29426,7 @@
         <v>5.0278187220725803</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1002" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -29427,7 +29455,7 @@
         <v>4.4839044376736501</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1003" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -29456,7 +29484,7 @@
         <v>4.8169317128670102</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1004" s="1">
         <v>9</v>
       </c>
@@ -29485,7 +29513,7 @@
         <v>4.2753902387279297</v>
       </c>
     </row>
-    <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1005" s="1">
         <v>19.7</v>
       </c>
@@ -29514,7 +29542,7 @@
         <v>4.9146357211492901</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1006" s="1">
         <v>18.100000000000001</v>
       </c>
@@ -29543,7 +29571,7 @@
         <v>4.2322117802812302</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1007" s="1">
         <v>17.8</v>
       </c>
@@ -29572,7 +29600,7 @@
         <v>4.9193340898220503</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1008" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -29601,7 +29629,7 @@
         <v>4.5398198282943198</v>
       </c>
     </row>
-    <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1009" s="1">
         <v>3.3</v>
       </c>
@@ -29630,7 +29658,7 @@
         <v>4.4604378505255999</v>
       </c>
     </row>
-    <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1010" s="1">
         <v>7.2</v>
       </c>
@@ -29659,7 +29687,7 @@
         <v>4.5630343736603098</v>
       </c>
     </row>
-    <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1011" s="1">
         <v>10.8</v>
       </c>
@@ -29688,7 +29716,7 @@
         <v>5.0449837449892696</v>
       </c>
     </row>
-    <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1012" s="1">
         <v>7.7</v>
       </c>
@@ -29717,7 +29745,7 @@
         <v>5.0130740237475901</v>
       </c>
     </row>
-    <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1013" s="1">
         <v>13.5</v>
       </c>
@@ -29746,7 +29774,7 @@
         <v>4.9317008780076899</v>
       </c>
     </row>
-    <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1014" s="1">
         <v>13.4</v>
       </c>
@@ -29775,7 +29803,7 @@
         <v>4.65621204051752</v>
       </c>
     </row>
-    <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1015" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -29804,7 +29832,7 @@
         <v>5.0256205199118096</v>
       </c>
     </row>
-    <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1016" s="1">
         <v>5.7</v>
       </c>
@@ -29833,7 +29861,7 @@
         <v>4.8178396806505903</v>
       </c>
     </row>
-    <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1017" s="1">
         <v>15.1</v>
       </c>
@@ -29862,7 +29890,7 @@
         <v>4.3194809505122</v>
       </c>
     </row>
-    <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1018" s="1">
         <v>9.6</v>
       </c>
@@ -29891,7 +29919,7 @@
         <v>4.9158928671957902</v>
       </c>
     </row>
-    <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1019" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -29920,7 +29948,7 @@
         <v>4.85885714420826</v>
       </c>
     </row>
-    <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1020" s="1">
         <v>3</v>
       </c>
@@ -29949,7 +29977,7 @@
         <v>4.1232594976407597</v>
       </c>
     </row>
-    <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1021" s="1">
         <v>17.899999999999999</v>
       </c>
@@ -29978,7 +30006,7 @@
         <v>5.2206286580399004</v>
       </c>
     </row>
-    <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1022" s="1">
         <v>15.2</v>
       </c>
